--- a/chp3/chp3.xlsx
+++ b/chp3/chp3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E72F80-BDCB-4317-89DB-9545A22911E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC4037-E6C4-4F72-9C40-828541A48203}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="figures" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="532">
   <si>
     <t>rail transit</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>texi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pravite car</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sakaishi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Fukuoka</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,9 +315,6 @@
     <t>貝塚駅</t>
   </si>
   <si>
-    <t>Kaidzuka</t>
-  </si>
-  <si>
     <t>福岡空港駅</t>
   </si>
   <si>
@@ -365,9 +354,6 @@
     <t>千代県庁口駅</t>
   </si>
   <si>
-    <t>Chiyokenchou</t>
-  </si>
-  <si>
     <t>姪浜駅</t>
   </si>
   <si>
@@ -413,9 +399,6 @@
     <t>馬出九大病院前駅</t>
   </si>
   <si>
-    <t>Maidashikyudaibyuinmae</t>
-  </si>
-  <si>
     <t>大濠公園駅</t>
   </si>
   <si>
@@ -501,9 +484,6 @@
   </si>
   <si>
     <t>桜坂駅</t>
-  </si>
-  <si>
-    <t>Sakurasaka</t>
   </si>
   <si>
     <t>福大前駅</t>
@@ -2089,6 +2069,26 @@
   </si>
   <si>
     <t>Population density</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaizuka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chiyokenchouguchi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakurazaka</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3985,6 +3985,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3993,48 +4001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4072,6 +4038,60 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4093,18 +4113,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4122,6 +4130,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4142,48 +4192,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4215,14 +4223,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10209,7 +10209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>texi</c:v>
+                  <c:v>taxi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10922,7 +10922,7 @@
                   <c:v>Nagoya</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sakaishi</c:v>
+                  <c:v>Sakai</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Fukuoka</c:v>
@@ -12562,7 +12562,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>texi</c:v>
+                  <c:v>taxi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13274,7 +13274,7 @@
                   <c:v>Nagoya</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sakaishi</c:v>
+                  <c:v>Sakai</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Fukuoka</c:v>
@@ -13790,7 +13790,7 @@
                   <c:v>Nagoya</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sakaishi</c:v>
+                  <c:v>Sakai</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Fukuoka</c:v>
@@ -26590,8 +26590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26600,15 +26600,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="257" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
+      <c r="A1" s="261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -26618,16 +26618,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -26747,19 +26747,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -27058,21 +27058,21 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="3">
         <v>16.8</v>
@@ -27080,7 +27080,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3">
         <v>17.8</v>
@@ -27088,7 +27088,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3">
         <v>18.600000000000001</v>
@@ -27096,7 +27096,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3">
         <v>18.600000000000001</v>
@@ -27104,7 +27104,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="3">
         <v>18.899999999999999</v>
@@ -27112,7 +27112,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>527</v>
       </c>
       <c r="B40" s="3">
         <v>19.399999999999999</v>
@@ -27120,7 +27120,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" s="3">
         <v>20.399999999999999</v>
@@ -27128,7 +27128,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="3">
         <v>20.7</v>
@@ -27136,7 +27136,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" s="3">
         <v>22.7</v>
@@ -27144,7 +27144,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3">
         <v>23.6</v>
@@ -27152,7 +27152,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="3">
         <v>24.4</v>
@@ -27160,7 +27160,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="3">
         <v>26.7</v>
@@ -27168,7 +27168,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="3">
         <v>27.3</v>
@@ -27176,7 +27176,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" s="3">
         <v>28.1</v>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" s="3">
         <v>29</v>
@@ -27192,7 +27192,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3">
         <v>29.9</v>
@@ -27200,7 +27200,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" s="3">
         <v>29.9</v>
@@ -27208,7 +27208,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="3">
         <v>30.2</v>
@@ -27216,7 +27216,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" s="3">
         <v>30.8</v>
@@ -27224,7 +27224,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="3">
         <v>32.6</v>
@@ -27232,57 +27232,57 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C57" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57" t="s">
+        <v>320</v>
+      </c>
+      <c r="H57" t="s">
         <v>321</v>
       </c>
-      <c r="D57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G57" t="s">
-        <v>326</v>
-      </c>
-      <c r="H57" t="s">
-        <v>327</v>
-      </c>
       <c r="I57" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K57" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L57" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M57" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" t="s">
         <v>314</v>
       </c>
-      <c r="B58" t="s">
-        <v>319</v>
-      </c>
-      <c r="C58" t="s">
-        <v>320</v>
-      </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I58">
         <v>1981</v>
@@ -27291,33 +27291,33 @@
         <v>1993</v>
       </c>
       <c r="K58" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L58">
         <v>13</v>
       </c>
       <c r="M58" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I59">
         <v>1982</v>
@@ -27326,56 +27326,56 @@
         <v>1986</v>
       </c>
       <c r="K59" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L59">
         <v>7</v>
       </c>
       <c r="M59" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" t="s">
         <v>316</v>
       </c>
-      <c r="B60" t="s">
-        <v>318</v>
-      </c>
-      <c r="C60" t="s">
-        <v>322</v>
-      </c>
       <c r="D60" s="123" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I60">
         <v>2005</v>
       </c>
       <c r="K60" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L60">
         <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G61" s="257" t="s">
-        <v>336</v>
-      </c>
-      <c r="H61" s="257"/>
-      <c r="I61" s="257"/>
-      <c r="J61" s="257"/>
+      <c r="G61" s="261" t="s">
+        <v>330</v>
+      </c>
+      <c r="H61" s="261"/>
+      <c r="I61" s="261"/>
+      <c r="J61" s="261"/>
       <c r="K61" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L61">
         <v>35</v>
@@ -27405,7 +27405,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="189" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B1" s="190"/>
       <c r="C1" s="190"/>
@@ -27418,30 +27418,30 @@
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="192"/>
       <c r="B2" s="181" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="181" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="181" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="181" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="181" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="181" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="193" t="s">
         <v>437</v>
-      </c>
-      <c r="C2" s="181" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" s="181" t="s">
-        <v>439</v>
-      </c>
-      <c r="E2" s="181" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" s="181" t="s">
-        <v>441</v>
-      </c>
-      <c r="G2" s="181" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" s="193" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="194" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B3" s="195">
         <v>0.46502590673575128</v>
@@ -27467,7 +27467,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="194" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B4" s="195">
         <v>0.84517158818834792</v>
@@ -27493,7 +27493,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B5" s="195">
         <v>0.53547776726584673</v>
@@ -27519,7 +27519,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="194" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B6" s="195">
         <v>0.46240851630073188</v>
@@ -27545,7 +27545,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="194" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B7" s="195">
         <v>0.91249999999999998</v>
@@ -27571,7 +27571,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="194" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B8" s="195">
         <v>0.44285714285714284</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="194" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B9" s="195">
         <v>0.85202639019792648</v>
@@ -27623,7 +27623,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="194" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B10" s="195">
         <v>0.97177419354838712</v>
@@ -27649,7 +27649,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="194" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B11" s="195">
         <v>0.90769230769230769</v>
@@ -27675,7 +27675,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="194" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B12" s="195">
         <v>0.77252453166815338</v>
@@ -27701,7 +27701,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="194" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B13" s="195">
         <v>0.60544747081712058</v>
@@ -27727,7 +27727,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="194" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B14" s="195">
         <v>0.97486033519553073</v>
@@ -27753,7 +27753,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="197" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B15" s="198">
         <v>0.72898051253893736</v>
@@ -27780,7 +27780,7 @@
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="189" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B18" s="190"/>
       <c r="C18" s="190"/>
@@ -27793,30 +27793,30 @@
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="192"/>
       <c r="B19" s="181" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="181" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" s="181" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="181" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="181" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="181" t="s">
+        <v>436</v>
+      </c>
+      <c r="H19" s="193" t="s">
         <v>437</v>
-      </c>
-      <c r="C19" s="181" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" s="181" t="s">
-        <v>439</v>
-      </c>
-      <c r="E19" s="181" t="s">
-        <v>440</v>
-      </c>
-      <c r="F19" s="181" t="s">
-        <v>441</v>
-      </c>
-      <c r="G19" s="181" t="s">
-        <v>442</v>
-      </c>
-      <c r="H19" s="193" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="194" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B20" s="200">
         <v>8.9</v>
@@ -27842,7 +27842,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="194" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B21" s="200">
         <v>8.1</v>
@@ -27868,7 +27868,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="194" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B22" s="200">
         <v>8.9</v>
@@ -27894,7 +27894,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="194" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B23" s="200">
         <v>9</v>
@@ -27920,7 +27920,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="194" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B24" s="200">
         <v>7.2</v>
@@ -27946,7 +27946,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="194" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B25" s="200">
         <v>13.1</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="194" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B26" s="200">
         <v>6.7</v>
@@ -27998,7 +27998,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="194" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B27" s="200">
         <v>7.2</v>
@@ -28024,7 +28024,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="194" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B28" s="200">
         <v>6</v>
@@ -28050,7 +28050,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="194" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B29" s="200">
         <v>7.7</v>
@@ -28076,7 +28076,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="194" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B30" s="200">
         <v>8.3000000000000007</v>
@@ -28102,7 +28102,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="194" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B31" s="200">
         <v>7.3</v>
@@ -28128,7 +28128,7 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="197" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B32" s="202">
         <v>7.69553041335275</v>
@@ -28155,18 +28155,18 @@
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="192"/>
-      <c r="B35" s="258" t="s">
-        <v>437</v>
-      </c>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258" t="s">
-        <v>438</v>
-      </c>
-      <c r="E35" s="259"/>
+      <c r="B35" s="262" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262" t="s">
+        <v>432</v>
+      </c>
+      <c r="E35" s="263"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="194" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B36" s="200">
         <v>8.9</v>
@@ -28188,12 +28188,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="187" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="194" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B37" s="200">
         <v>8.1</v>
@@ -28215,12 +28215,12 @@
         <v>2</v>
       </c>
       <c r="J37" s="187" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="194" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B38" s="200">
         <v>8.9</v>
@@ -28242,12 +28242,12 @@
         <v>3</v>
       </c>
       <c r="J38" s="187" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="194" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B39" s="200">
         <v>9</v>
@@ -28269,12 +28269,12 @@
         <v>4</v>
       </c>
       <c r="J39" s="187" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="194" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B40" s="200">
         <v>7.2</v>
@@ -28296,12 +28296,12 @@
         <v>5</v>
       </c>
       <c r="J40" s="187" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="194" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B41" s="200">
         <v>13.1</v>
@@ -28323,12 +28323,12 @@
         <v>6</v>
       </c>
       <c r="J41" s="187" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="194" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B42" s="200">
         <v>6.7</v>
@@ -28350,12 +28350,12 @@
         <v>7</v>
       </c>
       <c r="J42" s="187" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="194" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B43" s="200">
         <v>7.2</v>
@@ -28377,12 +28377,12 @@
         <v>8</v>
       </c>
       <c r="J43" s="187" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="194" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B44" s="200">
         <v>6</v>
@@ -28404,12 +28404,12 @@
         <v>9</v>
       </c>
       <c r="J44" s="187" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="194" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B45" s="200">
         <v>7.7</v>
@@ -28431,12 +28431,12 @@
         <v>10</v>
       </c>
       <c r="J45" s="187" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="194" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B46" s="200">
         <v>8.3000000000000007</v>
@@ -28458,12 +28458,12 @@
         <v>11</v>
       </c>
       <c r="J46" s="187" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="194" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B47" s="200">
         <v>7.3</v>
@@ -28485,12 +28485,12 @@
         <v>12</v>
       </c>
       <c r="J47" s="187" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="197" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B48" s="202">
         <v>7.69553041335275</v>
@@ -28512,7 +28512,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="187" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.2">
@@ -28520,7 +28520,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="187" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.2">
@@ -28528,7 +28528,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="187" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.2">
@@ -28536,7 +28536,7 @@
         <v>16</v>
       </c>
       <c r="J51" s="187" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="9:10" x14ac:dyDescent="0.2">
@@ -28544,7 +28544,7 @@
         <v>17</v>
       </c>
       <c r="J52" s="187" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.2">
@@ -28552,7 +28552,7 @@
         <v>18</v>
       </c>
       <c r="J53" s="187" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="9:10" x14ac:dyDescent="0.2">
@@ -28560,7 +28560,7 @@
         <v>19</v>
       </c>
       <c r="J54" s="187" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="9:10" x14ac:dyDescent="0.2">
@@ -28568,7 +28568,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="187" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.2">
@@ -28576,7 +28576,7 @@
         <v>21</v>
       </c>
       <c r="J56" s="187" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.2">
@@ -28584,7 +28584,7 @@
         <v>22</v>
       </c>
       <c r="J57" s="187" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="9:10" x14ac:dyDescent="0.2">
@@ -28592,7 +28592,7 @@
         <v>23</v>
       </c>
       <c r="J58" s="187" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="9:10" x14ac:dyDescent="0.2">
@@ -28600,7 +28600,7 @@
         <v>24</v>
       </c>
       <c r="J59" s="187" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.2">
@@ -28608,7 +28608,7 @@
         <v>25</v>
       </c>
       <c r="J60" s="187" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.2">
@@ -28616,7 +28616,7 @@
         <v>26</v>
       </c>
       <c r="J61" s="187" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.2">
@@ -28624,7 +28624,7 @@
         <v>27</v>
       </c>
       <c r="J62" s="187" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.2">
@@ -28632,7 +28632,7 @@
         <v>28</v>
       </c>
       <c r="J63" s="187" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="9:10" x14ac:dyDescent="0.2">
@@ -28640,7 +28640,7 @@
         <v>29</v>
       </c>
       <c r="J64" s="187" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.2">
@@ -28648,7 +28648,7 @@
         <v>30</v>
       </c>
       <c r="J65" s="187" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.2">
@@ -28656,7 +28656,7 @@
         <v>31</v>
       </c>
       <c r="J66" s="187" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.2">
@@ -28664,7 +28664,7 @@
         <v>32</v>
       </c>
       <c r="J67" s="187" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.2">
@@ -28672,7 +28672,7 @@
         <v>33</v>
       </c>
       <c r="J68" s="187" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.2">
@@ -28680,7 +28680,7 @@
         <v>34</v>
       </c>
       <c r="J69" s="187" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.2">
@@ -28688,7 +28688,7 @@
         <v>35</v>
       </c>
       <c r="J70" s="187" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -28716,39 +28716,39 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="204" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="204" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="204" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="204" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="204" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="204" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="204" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="204" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" s="204" t="s">
-        <v>449</v>
-      </c>
-      <c r="D1" s="204" t="s">
-        <v>450</v>
-      </c>
-      <c r="E1" s="204" t="s">
-        <v>451</v>
-      </c>
-      <c r="F1" s="204" t="s">
-        <v>452</v>
-      </c>
-      <c r="G1" s="204" t="s">
-        <v>453</v>
-      </c>
-      <c r="W1" s="266" t="s">
-        <v>481</v>
-      </c>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="266"/>
+      <c r="W1" s="278" t="s">
+        <v>475</v>
+      </c>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="278"/>
+      <c r="Z1" s="278"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="204">
         <v>1</v>
       </c>
       <c r="B2" s="204" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C2" s="204">
         <v>1981</v>
@@ -28757,45 +28757,45 @@
         <v>1993</v>
       </c>
       <c r="E2" s="204" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F2" s="204">
         <v>13</v>
       </c>
       <c r="G2" s="204" t="s">
-        <v>456</v>
-      </c>
-      <c r="J2" s="257" t="s">
-        <v>389</v>
-      </c>
-      <c r="K2" s="257"/>
+        <v>450</v>
+      </c>
+      <c r="J2" s="261" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2" s="261"/>
       <c r="L2">
         <v>0.75600000000000001</v>
       </c>
       <c r="N2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="279" t="s">
-        <v>394</v>
-      </c>
-      <c r="S2" s="279"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="W2" s="269" t="s">
-        <v>476</v>
-      </c>
-      <c r="X2" s="271" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="273"/>
+        <v>221</v>
+      </c>
+      <c r="R2" s="269" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="W2" s="281" t="s">
+        <v>470</v>
+      </c>
+      <c r="X2" s="283" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y2" s="284"/>
+      <c r="Z2" s="285"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="204">
         <v>2</v>
       </c>
       <c r="B3" s="204" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C3" s="204">
         <v>1982</v>
@@ -28804,41 +28804,41 @@
         <v>1986</v>
       </c>
       <c r="E3" s="204" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F3" s="204">
         <v>7</v>
       </c>
       <c r="G3" s="204" t="s">
-        <v>456</v>
-      </c>
-      <c r="J3" s="265" t="s">
-        <v>390</v>
+        <v>450</v>
+      </c>
+      <c r="J3" s="276" t="s">
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L3">
         <v>346.08600000000001</v>
       </c>
       <c r="N3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="O3" s="210" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P3" s="210" t="s">
-        <v>387</v>
-      </c>
-      <c r="R3" s="280" t="s">
-        <v>395</v>
-      </c>
-      <c r="S3" s="282" t="s">
-        <v>396</v>
-      </c>
-      <c r="T3" s="283"/>
-      <c r="U3" s="284"/>
-      <c r="W3" s="270"/>
+        <v>381</v>
+      </c>
+      <c r="R3" s="270" t="s">
+        <v>389</v>
+      </c>
+      <c r="S3" s="272" t="s">
+        <v>390</v>
+      </c>
+      <c r="T3" s="273"/>
+      <c r="U3" s="274"/>
+      <c r="W3" s="282"/>
       <c r="X3" s="219">
         <v>1</v>
       </c>
@@ -28854,30 +28854,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="204" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C4" s="204">
         <v>2005</v>
       </c>
       <c r="D4" s="205"/>
       <c r="E4" s="204" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F4" s="204">
         <v>16</v>
       </c>
       <c r="G4" s="204" t="s">
-        <v>461</v>
-      </c>
-      <c r="J4" s="265"/>
+        <v>455</v>
+      </c>
+      <c r="J4" s="276"/>
       <c r="K4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L4">
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="O4" s="209">
         <v>1</v>
@@ -28885,18 +28885,18 @@
       <c r="P4" s="209">
         <v>0.94299999999999995</v>
       </c>
-      <c r="R4" s="281"/>
+      <c r="R4" s="271"/>
       <c r="S4" s="211" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="T4" s="211" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="U4" s="212" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="W4" s="221" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="X4" s="222">
         <v>0.96199999999999997</v>
@@ -28909,28 +28909,28 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="285" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="285"/>
+      <c r="A5" s="275" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="275"/>
       <c r="C5" s="206"/>
       <c r="D5" s="206"/>
       <c r="E5" s="204" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F5" s="204">
         <v>35</v>
       </c>
       <c r="G5" s="205"/>
-      <c r="J5" s="265"/>
+      <c r="J5" s="276"/>
       <c r="K5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O5" s="209">
         <v>1</v>
@@ -28951,7 +28951,7 @@
         <v>50.676000000000002</v>
       </c>
       <c r="W5" s="221" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="X5" s="222">
         <v>0.93400000000000005</v>
@@ -28965,7 +28965,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O6" s="209">
         <v>1</v>
@@ -28986,7 +28986,7 @@
         <v>69.186999999999998</v>
       </c>
       <c r="W6" s="221" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="X6" s="222">
         <v>0.878</v>
@@ -29000,19 +29000,19 @@
     </row>
     <row r="7" spans="1:26" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O7" s="209">
         <v>1</v>
@@ -29033,7 +29033,7 @@
         <v>82.902000000000001</v>
       </c>
       <c r="W7" s="221" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="X7" s="222">
         <v>0.85</v>
@@ -29047,19 +29047,19 @@
     </row>
     <row r="8" spans="1:26" ht="27.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O8" s="209">
         <v>1</v>
@@ -29068,7 +29068,7 @@
         <v>0.71</v>
       </c>
       <c r="W8" s="221" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="X8" s="222">
         <v>0.83399999999999996</v>
@@ -29082,19 +29082,19 @@
     </row>
     <row r="9" spans="1:26" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="O9" s="209">
         <v>1</v>
@@ -29103,7 +29103,7 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="W9" s="221" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="X9" s="223">
         <v>0.30099999999999999</v>
@@ -29117,19 +29117,19 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10" t="s">
+        <v>469</v>
+      </c>
+      <c r="N10" t="s">
         <v>473</v>
-      </c>
-      <c r="C10" t="s">
-        <v>474</v>
-      </c>
-      <c r="D10" t="s">
-        <v>475</v>
-      </c>
-      <c r="N10" t="s">
-        <v>479</v>
       </c>
       <c r="O10" s="209">
         <v>1</v>
@@ -29138,7 +29138,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="W10" s="221" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="X10" s="223">
         <v>-0.52100000000000002</v>
@@ -29152,7 +29152,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="N11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O11" s="209">
         <v>1</v>
@@ -29161,7 +29161,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="W11" s="221" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="X11" s="223">
         <v>-6.6000000000000003E-2</v>
@@ -29175,7 +29175,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="N12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O12" s="209">
         <v>1</v>
@@ -29184,7 +29184,7 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="W12" s="221" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="X12" s="222">
         <v>0.627</v>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="13" spans="1:26" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="O13" s="209">
         <v>1</v>
@@ -29207,7 +29207,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="W13" s="226" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="X13" s="227">
         <v>0.56999999999999995</v>
@@ -29223,42 +29223,42 @@
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J18" s="229" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K18" s="230" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L18" s="230" t="s">
+        <v>358</v>
+      </c>
+      <c r="M18" s="230" t="s">
         <v>364</v>
       </c>
-      <c r="M18" s="230" t="s">
-        <v>370</v>
-      </c>
       <c r="N18" s="230" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O18" s="229" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q18" s="279" t="s">
+        <v>478</v>
+      </c>
+      <c r="R18" s="237" t="s">
+        <v>483</v>
+      </c>
+      <c r="S18" s="237" t="s">
         <v>485</v>
       </c>
-      <c r="Q18" s="267" t="s">
-        <v>484</v>
-      </c>
-      <c r="R18" s="237" t="s">
+      <c r="T18" s="237" t="s">
+        <v>487</v>
+      </c>
+      <c r="U18" s="237" t="s">
         <v>489</v>
-      </c>
-      <c r="S18" s="237" t="s">
-        <v>491</v>
-      </c>
-      <c r="T18" s="237" t="s">
-        <v>493</v>
-      </c>
-      <c r="U18" s="237" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J19" s="231" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K19" s="232">
         <v>2.8500000000000001E-2</v>
@@ -29275,23 +29275,23 @@
       <c r="O19" s="233">
         <v>3416</v>
       </c>
-      <c r="Q19" s="268"/>
+      <c r="Q19" s="280"/>
       <c r="R19" s="238" t="s">
+        <v>484</v>
+      </c>
+      <c r="S19" s="238" t="s">
+        <v>486</v>
+      </c>
+      <c r="T19" s="238" t="s">
+        <v>488</v>
+      </c>
+      <c r="U19" s="238" t="s">
         <v>490</v>
-      </c>
-      <c r="S19" s="238" t="s">
-        <v>492</v>
-      </c>
-      <c r="T19" s="238" t="s">
-        <v>494</v>
-      </c>
-      <c r="U19" s="238" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J20" s="231" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K20" s="232">
         <v>5.4300000000000001E-2</v>
@@ -29309,7 +29309,7 @@
         <v>15633</v>
       </c>
       <c r="Q20" s="231" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="R20" s="233">
         <v>0</v>
@@ -29326,7 +29326,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J21" s="231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K21" s="232">
         <v>6.0299999999999999E-2</v>
@@ -29344,7 +29344,7 @@
         <v>7391</v>
       </c>
       <c r="Q21" s="231" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="R21" s="233">
         <v>0</v>
@@ -29361,7 +29361,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J22" s="231" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K22" s="232">
         <v>0.38080000000000003</v>
@@ -29379,7 +29379,7 @@
         <v>52300</v>
       </c>
       <c r="Q22" s="231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="R22" s="233">
         <v>0</v>
@@ -29396,7 +29396,7 @@
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J23" s="234" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K23" s="235">
         <v>0.27479999999999999</v>
@@ -29414,7 +29414,7 @@
         <v>11038</v>
       </c>
       <c r="Q23" s="231" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="R23" s="233">
         <v>2</v>
@@ -29431,7 +29431,7 @@
     </row>
     <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="234" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="R24" s="236">
         <v>0</v>
@@ -29448,26 +29448,26 @@
     </row>
     <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="274" t="s">
-        <v>497</v>
-      </c>
-      <c r="C27" s="275"/>
+      <c r="B27" s="264" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" s="265"/>
       <c r="D27" s="239" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E27" s="239" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F27" s="239" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B28" s="241" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C28" s="244" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D28" s="245">
         <v>3</v>
@@ -29481,10 +29481,10 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="241" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C29" s="244" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D29" s="246">
         <v>13</v>
@@ -29499,7 +29499,7 @@
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="242"/>
       <c r="C30" s="244" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D30" s="246">
         <v>8</v>
@@ -29509,23 +29509,23 @@
       </c>
       <c r="F30" s="248"/>
       <c r="K30" s="240" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L30" s="240"/>
       <c r="M30" s="240" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N30" s="240" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O30" s="240" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="242"/>
       <c r="C31" s="244" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D31" s="246">
         <v>8</v>
@@ -29534,11 +29534,11 @@
         <v>-2481</v>
       </c>
       <c r="F31" s="248"/>
-      <c r="K31" s="264" t="s">
-        <v>526</v>
+      <c r="K31" s="277" t="s">
+        <v>520</v>
       </c>
       <c r="L31" s="188" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M31" s="240">
         <v>3</v>
@@ -29553,7 +29553,7 @@
     <row r="32" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="243"/>
       <c r="C32" s="249" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D32" s="250">
         <v>3</v>
@@ -29562,9 +29562,9 @@
         <v>-8360</v>
       </c>
       <c r="F32" s="251"/>
-      <c r="K32" s="264"/>
+      <c r="K32" s="277"/>
       <c r="L32" s="188" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M32" s="240">
         <v>13</v>
@@ -29578,10 +29578,10 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="241" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C33" s="244" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D33" s="246">
         <v>16</v>
@@ -29592,9 +29592,9 @@
       <c r="F33" s="246">
         <v>43287.796999999999</v>
       </c>
-      <c r="K33" s="264"/>
+      <c r="K33" s="277"/>
       <c r="L33" s="188" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M33" s="240">
         <v>8</v>
@@ -29606,10 +29606,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="241" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C34" s="244" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D34" s="246">
         <v>9</v>
@@ -29620,9 +29620,9 @@
       <c r="F34" s="247">
         <v>0.4607</v>
       </c>
-      <c r="K34" s="264"/>
+      <c r="K34" s="277"/>
       <c r="L34" s="188" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M34" s="240">
         <v>8</v>
@@ -29635,7 +29635,7 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="242"/>
       <c r="C35" s="244" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D35" s="246">
         <v>5</v>
@@ -29644,9 +29644,9 @@
         <v>-4765</v>
       </c>
       <c r="F35" s="248"/>
-      <c r="K35" s="264"/>
+      <c r="K35" s="277"/>
       <c r="L35" s="188" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M35" s="240">
         <v>3</v>
@@ -29659,7 +29659,7 @@
     <row r="36" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="243"/>
       <c r="C36" s="249" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D36" s="250">
         <v>5</v>
@@ -29668,11 +29668,11 @@
         <v>36671</v>
       </c>
       <c r="F36" s="251"/>
-      <c r="K36" s="264" t="s">
-        <v>528</v>
+      <c r="K36" s="277" t="s">
+        <v>522</v>
       </c>
       <c r="L36" s="188" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M36" s="240">
         <v>16</v>
@@ -29686,10 +29686,10 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="241" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C37" s="244" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D37" s="246">
         <v>4</v>
@@ -29700,9 +29700,9 @@
       <c r="F37" s="246">
         <v>16239.531999999999</v>
       </c>
-      <c r="K37" s="264"/>
+      <c r="K37" s="277"/>
       <c r="L37" s="188" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M37" s="240">
         <v>9</v>
@@ -29716,10 +29716,10 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="241" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C38" s="244" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D38" s="246">
         <v>20</v>
@@ -29730,9 +29730,9 @@
       <c r="F38" s="247">
         <v>0.17280000000000001</v>
       </c>
-      <c r="K38" s="264"/>
+      <c r="K38" s="277"/>
       <c r="L38" s="188" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M38" s="240">
         <v>5</v>
@@ -29745,7 +29745,7 @@
     <row r="39" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="243"/>
       <c r="C39" s="249" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D39" s="250">
         <v>11</v>
@@ -29754,9 +29754,9 @@
         <v>10664</v>
       </c>
       <c r="F39" s="251"/>
-      <c r="K39" s="264"/>
+      <c r="K39" s="277"/>
       <c r="L39" s="188" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M39" s="240">
         <v>5</v>
@@ -29768,10 +29768,10 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="241" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C40" s="244" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D40" s="246">
         <v>13</v>
@@ -29782,11 +29782,11 @@
       <c r="F40" s="246">
         <v>12267.156000000001</v>
       </c>
-      <c r="K40" s="264" t="s">
-        <v>527</v>
+      <c r="K40" s="277" t="s">
+        <v>521</v>
       </c>
       <c r="L40" s="188" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M40" s="240">
         <v>4</v>
@@ -29800,10 +29800,10 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="241" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C41" s="244" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D41" s="246">
         <v>9</v>
@@ -29814,9 +29814,9 @@
       <c r="F41" s="247">
         <v>0.13059999999999999</v>
       </c>
-      <c r="K41" s="264"/>
+      <c r="K41" s="277"/>
       <c r="L41" s="188" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M41" s="240">
         <v>20</v>
@@ -29831,7 +29831,7 @@
     <row r="42" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="243"/>
       <c r="C42" s="249" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D42" s="250">
         <v>13</v>
@@ -29840,9 +29840,9 @@
         <v>6766</v>
       </c>
       <c r="F42" s="251"/>
-      <c r="K42" s="264"/>
+      <c r="K42" s="277"/>
       <c r="L42" s="188" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M42" s="240">
         <v>11</v>
@@ -29854,10 +29854,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="241" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C43" s="244" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D43" s="246">
         <v>5</v>
@@ -29868,11 +29868,11 @@
       <c r="F43" s="246">
         <v>9159.2844000000005</v>
       </c>
-      <c r="K43" s="264" t="s">
-        <v>529</v>
+      <c r="K43" s="277" t="s">
+        <v>523</v>
       </c>
       <c r="L43" s="188" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M43" s="240">
         <v>13</v>
@@ -29886,10 +29886,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="241" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C44" s="244" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D44" s="246">
         <v>11</v>
@@ -29900,9 +29900,9 @@
       <c r="F44" s="247">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="K44" s="264"/>
+      <c r="K44" s="277"/>
       <c r="L44" s="188" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M44" s="240">
         <v>9</v>
@@ -29917,7 +29917,7 @@
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="242"/>
       <c r="C45" s="244" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D45" s="246">
         <v>11</v>
@@ -29926,9 +29926,9 @@
         <v>-4317</v>
       </c>
       <c r="F45" s="248"/>
-      <c r="K45" s="264"/>
+      <c r="K45" s="277"/>
       <c r="L45" s="188" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M45" s="240">
         <v>13</v>
@@ -29941,7 +29941,7 @@
     <row r="46" spans="2:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="252"/>
       <c r="C46" s="253" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D46" s="254">
         <v>8</v>
@@ -29950,11 +29950,11 @@
         <v>1544</v>
       </c>
       <c r="F46" s="255"/>
-      <c r="K46" s="264" t="s">
-        <v>530</v>
+      <c r="K46" s="277" t="s">
+        <v>524</v>
       </c>
       <c r="L46" s="188" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M46" s="240">
         <v>5</v>
@@ -29967,20 +29967,20 @@
       </c>
     </row>
     <row r="47" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="276" t="s">
-        <v>523</v>
-      </c>
-      <c r="C47" s="277"/>
-      <c r="D47" s="278" t="s">
-        <v>524</v>
-      </c>
-      <c r="E47" s="276"/>
+      <c r="B47" s="266" t="s">
+        <v>517</v>
+      </c>
+      <c r="C47" s="267"/>
+      <c r="D47" s="268" t="s">
+        <v>518</v>
+      </c>
+      <c r="E47" s="266"/>
       <c r="F47" s="246">
         <v>35</v>
       </c>
-      <c r="K47" s="264"/>
+      <c r="K47" s="277"/>
       <c r="L47" s="188" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M47" s="240">
         <v>11</v>
@@ -29993,20 +29993,20 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="260" t="s">
-        <v>525</v>
-      </c>
-      <c r="C48" s="261"/>
-      <c r="D48" s="262" t="s">
-        <v>271</v>
-      </c>
-      <c r="E48" s="263"/>
+      <c r="B48" s="286" t="s">
+        <v>519</v>
+      </c>
+      <c r="C48" s="287"/>
+      <c r="D48" s="288" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="289"/>
       <c r="F48" s="256">
         <v>0.51342200000000005</v>
       </c>
-      <c r="K48" s="264"/>
+      <c r="K48" s="277"/>
       <c r="L48" s="188" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M48" s="240">
         <v>11</v>
@@ -30017,9 +30017,9 @@
       <c r="O48" s="240"/>
     </row>
     <row r="49" spans="11:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K49" s="264"/>
+      <c r="K49" s="277"/>
       <c r="L49" s="188" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M49" s="240">
         <v>8</v>
@@ -30030,33 +30030,45 @@
       <c r="O49" s="240"/>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K50" s="264" t="s">
-        <v>523</v>
-      </c>
-      <c r="L50" s="264"/>
-      <c r="M50" s="265" t="s">
-        <v>524</v>
-      </c>
-      <c r="N50" s="265"/>
+      <c r="K50" s="277" t="s">
+        <v>517</v>
+      </c>
+      <c r="L50" s="277"/>
+      <c r="M50" s="276" t="s">
+        <v>518</v>
+      </c>
+      <c r="N50" s="276"/>
       <c r="O50" s="240">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="265" t="s">
+      <c r="K51" s="276" t="s">
+        <v>519</v>
+      </c>
+      <c r="L51" s="276"/>
+      <c r="M51" s="276" t="s">
         <v>525</v>
       </c>
-      <c r="L51" s="265"/>
-      <c r="M51" s="265" t="s">
-        <v>531</v>
-      </c>
-      <c r="N51" s="265"/>
+      <c r="N51" s="276"/>
       <c r="O51" s="240">
         <v>0.51342200000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:Z2"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
@@ -30069,18 +30081,6 @@
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K36:K39"/>
     <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30091,7 +30091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
@@ -30105,7 +30105,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4">
         <v>2000</v>
@@ -30155,54 +30155,54 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4">
         <v>242957</v>
@@ -30249,7 +30249,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4">
         <v>243198</v>
@@ -30296,7 +30296,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4">
         <v>486156</v>
@@ -30343,54 +30343,54 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>442977</v>
@@ -30439,7 +30439,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
         <v>43179</v>
@@ -30488,7 +30488,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -30529,7 +30529,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <v>486156</v>
@@ -30578,7 +30578,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5">
         <f>C8/B8-1</f>
@@ -30595,36 +30595,36 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ref="C13:E15" si="1">C9/B9-1</f>
@@ -30640,7 +30640,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="5">
         <f>H8/G8-1</f>
@@ -30681,14 +30681,14 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5">
         <f>H9/G9-1</f>
@@ -30729,7 +30729,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="1"/>
@@ -30745,7 +30745,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="5">
         <f>H10/G10-1</f>
@@ -30787,7 +30787,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="5">
         <f>H11/G11-1</f>
@@ -30837,33 +30837,33 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="S33" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F38" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -30874,7 +30874,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="112">
         <v>1.6131467697739099E-2</v>
@@ -30886,7 +30886,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="117" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H39" s="118">
         <v>4.9067162114585949E-2</v>
@@ -30895,7 +30895,7 @@
         <v>3</v>
       </c>
       <c r="M39" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N39">
         <f>COUNTIF(D$39:D$50,O39)</f>
@@ -30910,7 +30910,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="112">
         <v>1.6188580264943742E-2</v>
@@ -30922,7 +30922,7 @@
         <v>29</v>
       </c>
       <c r="G40" s="117" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H40" s="118">
         <v>4.891753390674336E-2</v>
@@ -30931,7 +30931,7 @@
         <v>3</v>
       </c>
       <c r="M40" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N40">
         <f>COUNTIF(D$39:D$50,O40)</f>
@@ -30946,7 +30946,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="112">
         <v>1.6317537011234506E-2</v>
@@ -30958,7 +30958,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="117" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H41" s="118">
         <v>5.5020831357056377E-2</v>
@@ -30967,7 +30967,7 @@
         <v>3</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <f>COUNTIF(D$39:D$50,O41)</f>
@@ -30982,7 +30982,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" s="112">
         <v>1.5988078050390708E-2</v>
@@ -30994,7 +30994,7 @@
         <v>33</v>
       </c>
       <c r="G42" s="117" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H42" s="118">
         <v>5.5216738809103827E-2</v>
@@ -31011,7 +31011,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="112">
         <v>1.5024399541694544E-2</v>
@@ -31023,7 +31023,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="117" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H43" s="118">
         <v>5.4743000222577942E-2</v>
@@ -31040,7 +31040,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="111" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="112">
         <v>1.2571131326186258E-2</v>
@@ -31052,7 +31052,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="117" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H44" s="118">
         <v>5.3536242839459902E-2</v>
@@ -31069,7 +31069,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="111" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" s="112">
         <v>1.3172227545558801E-2</v>
@@ -31081,7 +31081,7 @@
         <v>30</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H45" s="121">
         <v>8.0440847091053147E-2</v>
@@ -31098,7 +31098,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C46" s="112">
         <v>2.1208038426789644E-2</v>
@@ -31110,7 +31110,7 @@
         <v>35</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H46" s="121">
         <v>7.5737027104392673E-2</v>
@@ -31127,7 +31127,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" s="112">
         <v>2.2464038318440016E-2</v>
@@ -31139,7 +31139,7 @@
         <v>21</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H47" s="121">
         <v>6.6445470627396475E-2</v>
@@ -31156,7 +31156,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48" s="112">
         <v>1.9411145443455569E-2</v>
@@ -31168,7 +31168,7 @@
         <v>24</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H48" s="121">
         <v>6.5849679183084708E-2</v>
@@ -31185,7 +31185,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C49" s="112">
         <v>6.8736090436758435E-3</v>
@@ -31197,7 +31197,7 @@
         <v>25</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H49" s="121">
         <v>6.0811090258093614E-2</v>
@@ -31214,7 +31214,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="111" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C50" s="112">
         <v>8.9574190390946384E-3</v>
@@ -31226,7 +31226,7 @@
         <v>32</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H50" s="121">
         <v>6.3229104428236926E-2</v>
@@ -31243,7 +31243,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="114" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C51" s="115">
         <v>4.0341078045580625E-2</v>
@@ -31252,7 +31252,7 @@
         <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N51">
         <f>COUNTIF(D$51:D$61,O51)</f>
@@ -31267,7 +31267,7 @@
         <v>27</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" s="115">
         <v>4.0956384044118721E-2</v>
@@ -31276,7 +31276,7 @@
         <v>3</v>
       </c>
       <c r="M52" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N52">
         <f>COUNTIF(D$51:D$61,O52)</f>
@@ -31291,7 +31291,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C53" s="115">
         <v>4.1615145252007713E-2</v>
@@ -31300,19 +31300,19 @@
         <v>3</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="M53" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N53">
         <f>COUNTIF(D$51:D$61,O53)</f>
@@ -31327,7 +31327,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="114" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C54" s="115">
         <v>4.3089784687866395E-2</v>
@@ -31336,7 +31336,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G54" s="4">
         <v>8</v>
@@ -31356,7 +31356,7 @@
         <v>15</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="115">
         <v>4.4943235953083471E-2</v>
@@ -31365,7 +31365,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G55" s="4">
         <v>5</v>
@@ -31385,7 +31385,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C56" s="115">
         <v>3.4995289604798918E-2</v>
@@ -31394,7 +31394,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -31414,7 +31414,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="114" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C57" s="115">
         <v>3.5081281796835118E-2</v>
@@ -31423,7 +31423,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -31443,7 +31443,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C58" s="115">
         <v>3.5832552127058159E-2</v>
@@ -31460,7 +31460,7 @@
         <v>34</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C59" s="115">
         <v>3.6157190783103532E-2</v>
@@ -31477,7 +31477,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="114" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C60" s="115">
         <v>2.7745769071807258E-2</v>
@@ -31494,7 +31494,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="114" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C61" s="115">
         <v>3.1207434560124092E-2</v>
@@ -31511,7 +31511,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C62" s="118">
         <v>4.9067162114585949E-2</v>
@@ -31520,7 +31520,7 @@
         <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N62">
         <f>COUNTIF(I$39:I$44,O62)</f>
@@ -31535,7 +31535,7 @@
         <v>29</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C63" s="118">
         <v>4.891753390674336E-2</v>
@@ -31544,7 +31544,7 @@
         <v>3</v>
       </c>
       <c r="M63" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N63">
         <f>COUNTIF(I$39:I$44,O63)</f>
@@ -31559,7 +31559,7 @@
         <v>26</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C64" s="118">
         <v>5.5020831357056377E-2</v>
@@ -31568,7 +31568,7 @@
         <v>3</v>
       </c>
       <c r="M64" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N64">
         <f>COUNTIF(I$39:I$44,O64)</f>
@@ -31583,7 +31583,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C65" s="118">
         <v>5.5216738809103827E-2</v>
@@ -31600,7 +31600,7 @@
         <v>28</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C66" s="118">
         <v>5.4743000222577942E-2</v>
@@ -31617,7 +31617,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C67" s="118">
         <v>5.3536242839459902E-2</v>
@@ -31634,7 +31634,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C68" s="121">
         <v>8.0440847091053147E-2</v>
@@ -31643,7 +31643,7 @@
         <v>3</v>
       </c>
       <c r="M68" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N68">
         <f>COUNTIF(I$45:I$50,O68)</f>
@@ -31658,7 +31658,7 @@
         <v>35</v>
       </c>
       <c r="B69" s="120" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C69" s="121">
         <v>7.5737027104392673E-2</v>
@@ -31667,7 +31667,7 @@
         <v>3</v>
       </c>
       <c r="M69" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N69">
         <f>COUNTIF(I$45:I$50,O69)</f>
@@ -31682,7 +31682,7 @@
         <v>21</v>
       </c>
       <c r="B70" s="120" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C70" s="121">
         <v>6.6445470627396475E-2</v>
@@ -31691,7 +31691,7 @@
         <v>3</v>
       </c>
       <c r="M70" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N70">
         <f>COUNTIF(I$45:I$50,O70)</f>
@@ -31706,7 +31706,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="120" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C71" s="121">
         <v>6.5849679183084708E-2</v>
@@ -31723,7 +31723,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="120" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C72" s="121">
         <v>6.0811090258093614E-2</v>
@@ -31740,7 +31740,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="120" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C73" s="121">
         <v>6.3229104428236926E-2</v>
@@ -31754,28 +31754,28 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B75" s="4">
         <v>2010</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F75" s="4">
         <v>2010</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -31831,11 +31831,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="265" t="s">
-        <v>355</v>
-      </c>
-      <c r="B78" s="265"/>
-      <c r="C78" s="265"/>
+      <c r="A78" s="276" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="276"/>
+      <c r="C78" s="276"/>
       <c r="E78" s="4">
         <v>2</v>
       </c>
@@ -31954,11 +31954,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="265" t="s">
-        <v>352</v>
-      </c>
-      <c r="B83" s="265"/>
-      <c r="C83" s="265"/>
+      <c r="A83" s="276" t="s">
+        <v>346</v>
+      </c>
+      <c r="B83" s="276"/>
+      <c r="C83" s="276"/>
       <c r="E83" s="4">
         <v>27</v>
       </c>
@@ -32245,41 +32245,41 @@
       <c r="D94" s="4">
         <v>3</v>
       </c>
-      <c r="E94" s="265" t="s">
-        <v>354</v>
-      </c>
-      <c r="F94" s="265"/>
-      <c r="G94" s="265"/>
-      <c r="H94" s="265"/>
+      <c r="E94" s="276" t="s">
+        <v>348</v>
+      </c>
+      <c r="F94" s="276"/>
+      <c r="G94" s="276"/>
+      <c r="H94" s="276"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="265" t="s">
-        <v>353</v>
-      </c>
-      <c r="B95" s="265"/>
-      <c r="C95" s="265"/>
-      <c r="D95" s="265"/>
+      <c r="A95" s="276" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="276"/>
+      <c r="C95" s="276"/>
+      <c r="D95" s="276"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B97" s="4">
         <v>12</v>
@@ -32296,7 +32296,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B98" s="4">
         <v>11</v>
@@ -32313,7 +32313,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B99" s="4">
         <v>6</v>
@@ -32330,7 +32330,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B100" s="4">
         <v>6</v>
@@ -32347,21 +32347,21 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B103" s="4">
         <v>2</v>
@@ -32378,7 +32378,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B104" s="4">
         <v>4</v>
@@ -32395,7 +32395,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B105" s="4">
         <v>11</v>
@@ -32412,7 +32412,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B106" s="4">
         <v>18</v>
@@ -32448,8 +32448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32459,25 +32459,25 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E2" s="4">
         <v>2005</v>
@@ -32509,28 +32509,28 @@
       <c r="N2" s="4">
         <v>2014</v>
       </c>
-      <c r="S2" s="293" t="s">
-        <v>179</v>
-      </c>
-      <c r="T2" s="295">
+      <c r="S2" s="292" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="290">
         <v>2005</v>
       </c>
-      <c r="U2" s="293" t="s">
-        <v>179</v>
-      </c>
-      <c r="V2" s="295">
+      <c r="U2" s="292" t="s">
+        <v>173</v>
+      </c>
+      <c r="V2" s="290">
         <v>2008</v>
       </c>
-      <c r="W2" s="293" t="s">
-        <v>179</v>
-      </c>
-      <c r="X2" s="295">
+      <c r="W2" s="292" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" s="290">
         <v>2011</v>
       </c>
-      <c r="Y2" s="293" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z2" s="295">
+      <c r="Y2" s="292" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="290">
         <v>2014</v>
       </c>
     </row>
@@ -32539,10 +32539,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -32586,14 +32586,14 @@
         <v>1.5024399541694544E-2</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="294"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="294"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="294"/>
-      <c r="Z3" s="296"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="291"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="291"/>
+      <c r="Y3" s="293"/>
+      <c r="Z3" s="291"/>
       <c r="AB3" s="129">
         <v>13384.3</v>
       </c>
@@ -32617,10 +32617,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -32711,10 +32711,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -32805,10 +32805,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -32899,10 +32899,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -32993,10 +32993,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -33087,10 +33087,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -33181,10 +33181,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -33275,10 +33275,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -33369,10 +33369,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -33463,10 +33463,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -33557,10 +33557,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -33651,10 +33651,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -33745,10 +33745,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -33839,10 +33839,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -33933,10 +33933,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -34027,10 +34027,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -34121,10 +34121,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -34215,10 +34215,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -34309,10 +34309,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>530</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -34403,10 +34403,10 @@
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
@@ -34497,10 +34497,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -34591,10 +34591,10 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -34685,10 +34685,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
@@ -34779,10 +34779,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -34873,10 +34873,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D28" s="4">
         <v>3</v>
@@ -34967,10 +34967,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
@@ -35061,10 +35061,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -35155,10 +35155,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
@@ -35249,10 +35249,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
@@ -35343,10 +35343,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
@@ -35437,10 +35437,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
@@ -35531,10 +35531,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
@@ -35625,10 +35625,10 @@
         <v>24</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>531</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
@@ -35719,10 +35719,10 @@
         <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
@@ -35834,7 +35834,7 @@
         <v>1924</v>
       </c>
       <c r="AA38" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AB38" s="129">
         <f>MAX(AB3:AB37)</f>
@@ -35847,7 +35847,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AA39" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AB39" s="129">
         <f>MIN(AB3:AB37)</f>
@@ -35862,7 +35862,7 @@
     </row>
     <row r="40" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AA40" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AB40" s="129">
         <f>AB38-AB39</f>
@@ -35875,41 +35875,41 @@
     </row>
     <row r="41" spans="1:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D41" s="38" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J41" s="40" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K41" s="41" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L41" s="38"/>
       <c r="M41" s="38" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N41" s="38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O41" s="38" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P41" s="38" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q41" s="127"/>
       <c r="R41" s="127"/>
@@ -35919,7 +35919,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F42" s="42">
         <v>1</v>
@@ -35931,7 +35931,7 @@
         <v>18</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J42" s="44">
         <v>2</v>
@@ -35940,7 +35940,7 @@
         <v>7116</v>
       </c>
       <c r="L42" s="46" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M42" s="46">
         <v>2</v>
@@ -35962,7 +35962,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F43" s="47">
         <v>1</v>
@@ -35974,7 +35974,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J43" s="44">
         <v>3</v>
@@ -35983,7 +35983,7 @@
         <v>6667</v>
       </c>
       <c r="L43" s="46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M43" s="46">
         <v>4</v>
@@ -36001,17 +36001,17 @@
       <c r="R43" s="46"/>
     </row>
     <row r="44" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="286" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="286"/>
-      <c r="F44" s="286"/>
-      <c r="G44" s="287"/>
+      <c r="D44" s="294" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="294"/>
+      <c r="F44" s="294"/>
+      <c r="G44" s="295"/>
       <c r="H44" s="44">
         <v>20</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J44" s="44">
         <v>2</v>
@@ -36020,7 +36020,7 @@
         <v>5655</v>
       </c>
       <c r="L44" s="46" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M44" s="46">
         <v>11</v>
@@ -36042,7 +36042,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F45" s="44">
         <v>1</v>
@@ -36054,7 +36054,7 @@
         <v>21</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J45" s="44">
         <v>2</v>
@@ -36063,7 +36063,7 @@
         <v>5609</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M45" s="46">
         <v>18</v>
@@ -36091,7 +36091,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F46" s="44">
         <v>1</v>
@@ -36103,7 +36103,7 @@
         <v>22</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J46" s="44">
         <v>3</v>
@@ -36130,7 +36130,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F47" s="44">
         <v>1</v>
@@ -36142,7 +36142,7 @@
         <v>23</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J47" s="44">
         <v>3</v>
@@ -36169,7 +36169,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F48" s="44">
         <v>3</v>
@@ -36181,7 +36181,7 @@
         <v>24</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J48" s="44">
         <v>2</v>
@@ -36204,17 +36204,17 @@
       </c>
     </row>
     <row r="49" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="288"/>
-      <c r="F49" s="288"/>
-      <c r="G49" s="289"/>
+      <c r="D49" s="296" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="296"/>
+      <c r="F49" s="296"/>
+      <c r="G49" s="297"/>
       <c r="H49" s="44">
         <v>25</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J49" s="44">
         <v>3</v>
@@ -36241,7 +36241,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F50" s="47">
         <v>1</v>
@@ -36253,7 +36253,7 @@
         <v>26</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J50" s="44">
         <v>2</v>
@@ -36280,7 +36280,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F51" s="47">
         <v>1</v>
@@ -36292,7 +36292,7 @@
         <v>27</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J51" s="44">
         <v>3</v>
@@ -36319,7 +36319,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F52" s="47">
         <v>1</v>
@@ -36331,7 +36331,7 @@
         <v>28</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J52" s="44">
         <v>3</v>
@@ -36358,7 +36358,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F53" s="47">
         <v>1</v>
@@ -36370,7 +36370,7 @@
         <v>29</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J53" s="44">
         <v>3</v>
@@ -36397,7 +36397,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F54" s="47">
         <v>1</v>
@@ -36409,7 +36409,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J54" s="44">
         <v>3</v>
@@ -36436,7 +36436,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F55" s="47">
         <v>2</v>
@@ -36448,7 +36448,7 @@
         <v>31</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J55" s="44">
         <v>3</v>
@@ -36475,7 +36475,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F56" s="47">
         <v>1</v>
@@ -36487,7 +36487,7 @@
         <v>32</v>
       </c>
       <c r="I56" s="44" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J56" s="44">
         <v>3</v>
@@ -36514,7 +36514,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F57" s="47">
         <v>1</v>
@@ -36526,7 +36526,7 @@
         <v>33</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J57" s="44">
         <v>3</v>
@@ -36553,7 +36553,7 @@
         <v>15</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F58" s="47">
         <v>3</v>
@@ -36565,7 +36565,7 @@
         <v>34</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J58" s="44">
         <v>3</v>
@@ -36592,7 +36592,7 @@
         <v>16</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F59" s="47">
         <v>1</v>
@@ -36604,7 +36604,7 @@
         <v>35</v>
       </c>
       <c r="I59" s="44" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J59" s="44">
         <v>3</v>
@@ -36631,7 +36631,7 @@
         <v>17</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F60" s="47">
         <v>3</v>
@@ -36639,12 +36639,12 @@
       <c r="G60" s="48">
         <v>9269</v>
       </c>
-      <c r="H60" s="290" t="s">
-        <v>211</v>
-      </c>
-      <c r="I60" s="291"/>
-      <c r="J60" s="291"/>
-      <c r="K60" s="292"/>
+      <c r="H60" s="298" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" s="299"/>
+      <c r="J60" s="299"/>
+      <c r="K60" s="300"/>
       <c r="L60" s="46"/>
       <c r="M60" s="46"/>
       <c r="N60" s="46"/>
@@ -36660,12 +36660,12 @@
       </c>
     </row>
     <row r="61" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="286" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="286"/>
-      <c r="F61" s="286"/>
-      <c r="G61" s="287"/>
+      <c r="D61" s="294" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="294"/>
+      <c r="F61" s="294"/>
+      <c r="G61" s="295"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
@@ -36833,6 +36833,11 @@
     <sortCondition ref="T45:T79"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
@@ -36840,11 +36845,6 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36855,7 +36855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
@@ -36869,68 +36869,68 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="K1" s="13" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="T1" s="126" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="U1" s="126"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="300" t="s">
-        <v>189</v>
+      <c r="A2" s="304" t="s">
+        <v>183</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2" s="15">
         <v>33.289488731964163</v>
@@ -36953,11 +36953,11 @@
       <c r="I2" s="15">
         <v>26809.122129626099</v>
       </c>
-      <c r="K2" s="297" t="s">
-        <v>412</v>
+      <c r="K2" s="301" t="s">
+        <v>406</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="15">
@@ -36984,9 +36984,9 @@
       <c r="U2" s="124"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="301"/>
+      <c r="A3" s="305"/>
       <c r="B3" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="15">
         <v>78.467834111943091</v>
@@ -37009,9 +37009,9 @@
       <c r="I3" s="15">
         <v>4596.6881567582996</v>
       </c>
-      <c r="K3" s="298"/>
+      <c r="K3" s="302"/>
       <c r="L3" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="15">
@@ -37038,9 +37038,9 @@
       <c r="U3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="301"/>
+      <c r="A4" s="305"/>
       <c r="B4" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C4" s="15">
         <v>80.964105841948793</v>
@@ -37063,9 +37063,9 @@
       <c r="I4" s="15">
         <v>12164.5641804322</v>
       </c>
-      <c r="K4" s="298"/>
+      <c r="K4" s="302"/>
       <c r="L4" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="15">
@@ -37092,9 +37092,9 @@
       <c r="U4" s="124"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="301"/>
+      <c r="A5" s="305"/>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="15">
         <v>78.601049909042104</v>
@@ -37117,9 +37117,9 @@
       <c r="I5" s="15">
         <v>9859.7118272064308</v>
       </c>
-      <c r="K5" s="298"/>
+      <c r="K5" s="302"/>
       <c r="L5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="15">
@@ -37146,9 +37146,9 @@
       <c r="U5" s="124"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="301"/>
+      <c r="A6" s="305"/>
       <c r="B6" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="15">
         <v>108.93230683993313</v>
@@ -37171,9 +37171,9 @@
       <c r="I6" s="15">
         <v>874.00000865786103</v>
       </c>
-      <c r="K6" s="298"/>
+      <c r="K6" s="302"/>
       <c r="L6" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="15">
@@ -37200,9 +37200,9 @@
       <c r="U6" s="124"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="301"/>
+      <c r="A7" s="305"/>
       <c r="B7" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" s="15">
         <v>100.67582802592524</v>
@@ -37225,9 +37225,9 @@
       <c r="I7" s="15">
         <v>420.63999999823199</v>
       </c>
-      <c r="K7" s="298"/>
+      <c r="K7" s="302"/>
       <c r="L7" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="15">
@@ -37254,9 +37254,9 @@
       <c r="U7" s="124"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="301"/>
+      <c r="A8" s="305"/>
       <c r="B8" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" s="15">
         <v>102.53769828004791</v>
@@ -37279,9 +37279,9 @@
       <c r="I8" s="15">
         <v>1091.33999996584</v>
       </c>
-      <c r="K8" s="298"/>
+      <c r="K8" s="302"/>
       <c r="L8" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="15">
@@ -37308,9 +37308,9 @@
       <c r="U8" s="124"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="301"/>
+      <c r="A9" s="305"/>
       <c r="B9" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="15">
         <v>90.503771809424805</v>
@@ -37333,9 +37333,9 @@
       <c r="I9" s="15">
         <v>6240.5129340622698</v>
       </c>
-      <c r="K9" s="298"/>
+      <c r="K9" s="302"/>
       <c r="L9" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="15">
@@ -37362,9 +37362,9 @@
       <c r="U9" s="124"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="301"/>
+      <c r="A10" s="305"/>
       <c r="B10" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="17">
         <v>121.03430351006301</v>
@@ -37387,9 +37387,9 @@
       <c r="I10" s="17">
         <v>5833.8621976100803</v>
       </c>
-      <c r="K10" s="298"/>
+      <c r="K10" s="302"/>
       <c r="L10" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="17">
@@ -37416,9 +37416,9 @@
       <c r="U10" s="124"/>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="302"/>
+      <c r="A11" s="306"/>
       <c r="B11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C11" s="18">
         <f>AVERAGE(C2:C10)</f>
@@ -37448,9 +37448,9 @@
         <f>AVERAGE(I2:I10)</f>
         <v>7543.3823815908145</v>
       </c>
-      <c r="K11" s="299"/>
+      <c r="K11" s="303"/>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="18">
@@ -37484,11 +37484,11 @@
       <c r="U11" s="125"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="300" t="s">
-        <v>191</v>
+      <c r="A12" s="304" t="s">
+        <v>185</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" s="20">
         <v>124.68438904955053</v>
@@ -37511,11 +37511,11 @@
       <c r="I12" s="20">
         <v>3868.4609119935099</v>
       </c>
-      <c r="K12" s="297" t="s">
-        <v>413</v>
+      <c r="K12" s="301" t="s">
+        <v>407</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="20">
@@ -37542,9 +37542,9 @@
       <c r="U12" s="124"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="301"/>
+      <c r="A13" s="305"/>
       <c r="B13" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C13" s="15">
         <v>143.28163727247284</v>
@@ -37567,9 +37567,9 @@
       <c r="I13" s="15">
         <v>2517.8653000085501</v>
       </c>
-      <c r="K13" s="298"/>
+      <c r="K13" s="302"/>
       <c r="L13" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="15">
@@ -37596,9 +37596,9 @@
       <c r="U13" s="124"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="301"/>
+      <c r="A14" s="305"/>
       <c r="B14" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" s="15">
         <v>145.38856474596707</v>
@@ -37621,9 +37621,9 @@
       <c r="I14" s="15">
         <v>1692.50565278358</v>
       </c>
-      <c r="K14" s="298"/>
+      <c r="K14" s="302"/>
       <c r="L14" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="15">
@@ -37650,9 +37650,9 @@
       <c r="U14" s="124"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="301"/>
+      <c r="A15" s="305"/>
       <c r="B15" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C15" s="15">
         <v>192.67162093663009</v>
@@ -37675,9 +37675,9 @@
       <c r="I15" s="15">
         <v>10764.6840744974</v>
       </c>
-      <c r="K15" s="298"/>
+      <c r="K15" s="302"/>
       <c r="L15" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="15">
@@ -37704,9 +37704,9 @@
       <c r="U15" s="124"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="301"/>
+      <c r="A16" s="305"/>
       <c r="B16" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C16" s="15">
         <v>169.86258033075788</v>
@@ -37729,9 +37729,9 @@
       <c r="I16" s="15">
         <v>648.69999997084005</v>
       </c>
-      <c r="K16" s="298"/>
+      <c r="K16" s="302"/>
       <c r="L16" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="15">
@@ -37758,9 +37758,9 @@
       <c r="U16" s="124"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="301"/>
+      <c r="A17" s="305"/>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="15">
         <v>143.89511795702765</v>
@@ -37783,9 +37783,9 @@
       <c r="I17" s="15">
         <v>15079.858607598901</v>
       </c>
-      <c r="K17" s="298"/>
+      <c r="K17" s="302"/>
       <c r="L17" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="15">
@@ -37812,9 +37812,9 @@
       <c r="U17" s="124"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="301"/>
+      <c r="A18" s="305"/>
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="15">
         <v>141.94092900847497</v>
@@ -37837,9 +37837,9 @@
       <c r="I18" s="15">
         <v>21281.478950176901</v>
       </c>
-      <c r="K18" s="298"/>
+      <c r="K18" s="302"/>
       <c r="L18" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="15">
@@ -37866,9 +37866,9 @@
       <c r="U18" s="124"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="301"/>
+      <c r="A19" s="305"/>
       <c r="B19" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="17">
         <v>142.42565770632334</v>
@@ -37891,9 +37891,9 @@
       <c r="I19" s="17">
         <v>15204.8613664245</v>
       </c>
-      <c r="K19" s="298"/>
+      <c r="K19" s="302"/>
       <c r="L19" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="17">
@@ -37920,9 +37920,9 @@
       <c r="U19" s="124"/>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="302"/>
+      <c r="A20" s="306"/>
       <c r="B20" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C20" s="18">
         <f>AVERAGE(C12:C19)</f>
@@ -37952,9 +37952,9 @@
         <f t="shared" si="2"/>
         <v>8882.3018579317722</v>
       </c>
-      <c r="K20" s="299"/>
+      <c r="K20" s="303"/>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="18">
@@ -37988,11 +37988,11 @@
       <c r="U20" s="125"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="300" t="s">
-        <v>193</v>
+      <c r="A21" s="304" t="s">
+        <v>187</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C21" s="20">
         <v>54.032626551271825</v>
@@ -38015,11 +38015,11 @@
       <c r="I21" s="20">
         <v>7650.0800625902202</v>
       </c>
-      <c r="K21" s="297" t="s">
-        <v>376</v>
+      <c r="K21" s="301" t="s">
+        <v>370</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="20">
@@ -38046,9 +38046,9 @@
       <c r="U21" s="124"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="301"/>
+      <c r="A22" s="305"/>
       <c r="B22" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="15">
         <v>89.204555143746461</v>
@@ -38071,9 +38071,9 @@
       <c r="I22" s="15">
         <v>27450.477908690798</v>
       </c>
-      <c r="K22" s="298"/>
+      <c r="K22" s="302"/>
       <c r="L22" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="15">
@@ -38100,9 +38100,9 @@
       <c r="U22" s="124"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="301"/>
+      <c r="A23" s="305"/>
       <c r="B23" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C23" s="15">
         <v>58.100607217654201</v>
@@ -38125,9 +38125,9 @@
       <c r="I23" s="15">
         <v>1390.8211756988601</v>
       </c>
-      <c r="K23" s="298"/>
+      <c r="K23" s="302"/>
       <c r="L23" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="15">
@@ -38154,9 +38154,9 @@
       <c r="U23" s="124"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="301"/>
+      <c r="A24" s="305"/>
       <c r="B24" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" s="15">
         <v>66.53372463027209</v>
@@ -38179,9 +38179,9 @@
       <c r="I24" s="15">
         <v>5486.95601208474</v>
       </c>
-      <c r="K24" s="298"/>
+      <c r="K24" s="302"/>
       <c r="L24" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="15">
@@ -38208,9 +38208,9 @@
       <c r="U24" s="124"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="301"/>
+      <c r="A25" s="305"/>
       <c r="B25" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="15">
         <v>55.524777379861533</v>
@@ -38233,9 +38233,9 @@
       <c r="I25" s="15">
         <v>61286.460568960101</v>
       </c>
-      <c r="K25" s="298"/>
+      <c r="K25" s="302"/>
       <c r="L25" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="15">
@@ -38262,9 +38262,9 @@
       <c r="U25" s="124"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="301"/>
+      <c r="A26" s="305"/>
       <c r="B26" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="15">
         <v>76.908844773461283</v>
@@ -38287,9 +38287,9 @@
       <c r="I26" s="15">
         <v>36971.708073497197</v>
       </c>
-      <c r="K26" s="298"/>
+      <c r="K26" s="302"/>
       <c r="L26" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="15">
@@ -38316,9 +38316,9 @@
       <c r="U26" s="124"/>
     </row>
     <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="301"/>
+      <c r="A27" s="305"/>
       <c r="B27" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C27" s="17">
         <v>35.134854648885629</v>
@@ -38341,9 +38341,9 @@
       <c r="I27" s="17">
         <v>6286.0395300192104</v>
       </c>
-      <c r="K27" s="298"/>
+      <c r="K27" s="302"/>
       <c r="L27" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="17">
@@ -38370,9 +38370,9 @@
       <c r="U27" s="124"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="302"/>
+      <c r="A28" s="306"/>
       <c r="B28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C28" s="24">
         <f>AVERAGE(C21:C27)</f>
@@ -38402,9 +38402,9 @@
         <f t="shared" si="4"/>
         <v>20931.791904505873</v>
       </c>
-      <c r="K28" s="299"/>
+      <c r="K28" s="303"/>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="24">
@@ -38438,11 +38438,11 @@
       <c r="U28" s="125"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="300" t="s">
-        <v>195</v>
+      <c r="A29" s="304" t="s">
+        <v>189</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="20">
         <v>63.72883649307429</v>
@@ -38465,11 +38465,11 @@
       <c r="I29" s="20">
         <v>74612.554544993007</v>
       </c>
-      <c r="K29" s="297" t="s">
-        <v>408</v>
+      <c r="K29" s="301" t="s">
+        <v>402</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="20">
@@ -38496,9 +38496,9 @@
       <c r="U29" s="124"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="301"/>
+      <c r="A30" s="305"/>
       <c r="B30" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="15">
         <v>66.792957482832293</v>
@@ -38521,9 +38521,9 @@
       <c r="I30" s="15">
         <v>35383.451010639103</v>
       </c>
-      <c r="K30" s="298"/>
+      <c r="K30" s="302"/>
       <c r="L30" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="15">
@@ -38550,9 +38550,9 @@
       <c r="U30" s="124"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="301"/>
+      <c r="A31" s="305"/>
       <c r="B31" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C31" s="15">
         <v>66.607840984027035</v>
@@ -38575,9 +38575,9 @@
       <c r="I31" s="15">
         <v>56288.425840543503</v>
       </c>
-      <c r="K31" s="298"/>
+      <c r="K31" s="302"/>
       <c r="L31" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="15">
@@ -38604,9 +38604,9 @@
       <c r="U31" s="124"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="301"/>
+      <c r="A32" s="305"/>
       <c r="B32" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C32" s="15">
         <v>79.449977531557849</v>
@@ -38629,9 +38629,9 @@
       <c r="I32" s="15">
         <v>229024.41444347799</v>
       </c>
-      <c r="K32" s="298"/>
+      <c r="K32" s="302"/>
       <c r="L32" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="15">
@@ -38658,9 +38658,9 @@
       <c r="U32" s="124"/>
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="301"/>
+      <c r="A33" s="305"/>
       <c r="B33" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="17">
         <v>91.734511427595521</v>
@@ -38683,9 +38683,9 @@
       <c r="I33" s="17">
         <v>231585.38756779299</v>
       </c>
-      <c r="K33" s="298"/>
+      <c r="K33" s="302"/>
       <c r="L33" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="17">
@@ -38712,9 +38712,9 @@
       <c r="U33" s="124"/>
     </row>
     <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="302"/>
+      <c r="A34" s="306"/>
       <c r="B34" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C34" s="18">
         <f>AVERAGE(C29:C33)</f>
@@ -38744,9 +38744,9 @@
         <f t="shared" si="6"/>
         <v>125378.84668148933</v>
       </c>
-      <c r="K34" s="299"/>
+      <c r="K34" s="303"/>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="18">
@@ -38780,11 +38780,11 @@
       <c r="U34" s="125"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="300" t="s">
-        <v>197</v>
+      <c r="A35" s="304" t="s">
+        <v>191</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" s="20">
         <v>64.212937896453838</v>
@@ -38807,11 +38807,11 @@
       <c r="I35" s="20">
         <v>46980.003697955901</v>
       </c>
-      <c r="K35" s="297" t="s">
-        <v>409</v>
+      <c r="K35" s="301" t="s">
+        <v>403</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="20">
@@ -38838,9 +38838,9 @@
       <c r="U35" s="124"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="301"/>
+      <c r="A36" s="305"/>
       <c r="B36" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" s="15">
         <v>167.11889071811174</v>
@@ -38863,9 +38863,9 @@
       <c r="I36" s="15">
         <v>58191.026852682298</v>
       </c>
-      <c r="K36" s="298"/>
+      <c r="K36" s="302"/>
       <c r="L36" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M36" s="14"/>
       <c r="N36" s="15">
@@ -38892,9 +38892,9 @@
       <c r="U36" s="124"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="301"/>
+      <c r="A37" s="305"/>
       <c r="B37" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C37" s="15">
         <v>135.77402321066509</v>
@@ -38917,9 +38917,9 @@
       <c r="I37" s="15">
         <v>69393.803859745502</v>
       </c>
-      <c r="K37" s="298"/>
+      <c r="K37" s="302"/>
       <c r="L37" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="15">
@@ -38946,9 +38946,9 @@
       <c r="U37" s="124"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="301"/>
+      <c r="A38" s="305"/>
       <c r="B38" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" s="15">
         <v>96.396986216317174</v>
@@ -38971,9 +38971,9 @@
       <c r="I38" s="15">
         <v>37844.8255102775</v>
       </c>
-      <c r="K38" s="298"/>
+      <c r="K38" s="302"/>
       <c r="L38" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M38" s="14"/>
       <c r="N38" s="15">
@@ -39000,9 +39000,9 @@
       <c r="U38" s="124"/>
     </row>
     <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="301"/>
+      <c r="A39" s="305"/>
       <c r="B39" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="17">
         <v>105.08547993386512</v>
@@ -39025,9 +39025,9 @@
       <c r="I39" s="17">
         <v>196280.56254043701</v>
       </c>
-      <c r="K39" s="298"/>
+      <c r="K39" s="302"/>
       <c r="L39" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M39" s="16"/>
       <c r="N39" s="17">
@@ -39054,9 +39054,9 @@
       <c r="U39" s="124"/>
     </row>
     <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="302"/>
+      <c r="A40" s="306"/>
       <c r="B40" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C40" s="25">
         <f>AVERAGE(C35:C39)</f>
@@ -39086,9 +39086,9 @@
         <f t="shared" si="8"/>
         <v>81738.044492219648</v>
       </c>
-      <c r="K40" s="299"/>
+      <c r="K40" s="303"/>
       <c r="L40" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="25">
@@ -39123,10 +39123,10 @@
     </row>
     <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="27">
         <v>19.281967934488371</v>
@@ -39150,10 +39150,10 @@
         <v>211879.64846790701</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M41" s="26"/>
       <c r="N41" s="27">
@@ -39182,36 +39182,36 @@
     <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="H45" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="G45" s="13" t="s">
+      <c r="I45" s="126" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="301" t="s">
         <v>406</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="I45" s="126" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="297" t="s">
-        <v>412</v>
       </c>
       <c r="B46" s="122">
         <v>30</v>
@@ -39241,19 +39241,19 @@
         <v>30</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M46" s="126"/>
       <c r="O46" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P46" s="124"/>
       <c r="Q46" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="298"/>
+      <c r="A47" s="302"/>
       <c r="B47" s="122">
         <v>26</v>
       </c>
@@ -39282,17 +39282,17 @@
         <v>26</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N47">
         <f t="shared" ref="N47:N81" si="10">MATCH(M47,P$47:P$81,0)</f>
         <v>30</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P47" s="124" t="str">
         <f>O47&amp;"駅"</f>
@@ -39303,23 +39303,23 @@
       </c>
       <c r="T47" s="181"/>
       <c r="U47" s="13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="V47" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="W47" s="13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X47" s="13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Y47" s="181" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="298"/>
+      <c r="A48" s="302"/>
       <c r="B48" s="122">
         <v>29</v>
       </c>
@@ -39348,17 +39348,17 @@
         <v>29</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N48">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P48" s="124" t="str">
         <f t="shared" ref="P48:P81" si="11">O48&amp;"駅"</f>
@@ -39368,7 +39368,7 @@
         <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="U48" s="153">
         <v>2.8504271833282597E-2</v>
@@ -39387,7 +39387,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="298"/>
+      <c r="A49" s="302"/>
       <c r="B49" s="122">
         <v>27</v>
       </c>
@@ -39416,17 +39416,17 @@
         <v>27</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N49">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P49" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39436,7 +39436,7 @@
         <v>3</v>
       </c>
       <c r="T49" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="U49" s="153">
         <v>5.4320420398961511E-2</v>
@@ -39455,7 +39455,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="298"/>
+      <c r="A50" s="302"/>
       <c r="B50" s="122">
         <v>28</v>
       </c>
@@ -39484,17 +39484,17 @@
         <v>28</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N50">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P50" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39504,7 +39504,7 @@
         <v>4</v>
       </c>
       <c r="T50" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="U50" s="153">
         <v>6.0316297728848965E-2</v>
@@ -39523,7 +39523,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="298"/>
+      <c r="A51" s="302"/>
       <c r="B51" s="122">
         <v>3</v>
       </c>
@@ -39552,17 +39552,17 @@
         <v>3</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N51">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P51" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39572,7 +39572,7 @@
         <v>5</v>
       </c>
       <c r="T51" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="U51" s="153">
         <v>0.38083715273764362</v>
@@ -39591,7 +39591,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="298"/>
+      <c r="A52" s="302"/>
       <c r="B52" s="122">
         <v>33</v>
       </c>
@@ -39620,17 +39620,17 @@
         <v>33</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N52">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P52" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39640,7 +39640,7 @@
         <v>6</v>
       </c>
       <c r="T52" s="182" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="U52" s="183">
         <v>0.27481836401964993</v>
@@ -39659,7 +39659,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="298"/>
+      <c r="A53" s="302"/>
       <c r="B53" s="122">
         <v>24</v>
       </c>
@@ -39688,17 +39688,17 @@
         <v>24</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N53">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P53" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39709,7 +39709,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="298"/>
+      <c r="A54" s="302"/>
       <c r="B54" s="122">
         <v>34</v>
       </c>
@@ -39738,17 +39738,17 @@
         <v>34</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N54">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P54" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39759,7 +39759,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="299"/>
+      <c r="A55" s="303"/>
       <c r="B55" s="122"/>
       <c r="C55" s="25">
         <f t="shared" ref="C55:I55" si="12">AVERAGE(C46:C54)</f>
@@ -39791,14 +39791,14 @@
       </c>
       <c r="J55" s="122"/>
       <c r="M55" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N55">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P55" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39809,21 +39809,21 @@
       </c>
       <c r="T55" s="181"/>
       <c r="U55" s="13" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="W55" s="13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="297" t="s">
-        <v>413</v>
+      <c r="A56" s="301" t="s">
+        <v>407</v>
       </c>
       <c r="B56" s="122">
         <v>19</v>
@@ -39853,17 +39853,17 @@
         <v>19</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N56">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P56" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39873,7 +39873,7 @@
         <v>10</v>
       </c>
       <c r="T56" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="U56" s="185">
         <v>0</v>
@@ -39889,7 +39889,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="298"/>
+      <c r="A57" s="302"/>
       <c r="B57" s="122">
         <v>13</v>
       </c>
@@ -39918,17 +39918,17 @@
         <v>13</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N57">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P57" s="124" t="str">
         <f t="shared" si="11"/>
@@ -39938,7 +39938,7 @@
         <v>11</v>
       </c>
       <c r="T57" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="U57" s="185">
         <v>0</v>
@@ -39954,7 +39954,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="298"/>
+      <c r="A58" s="302"/>
       <c r="B58" s="122">
         <v>16</v>
       </c>
@@ -39983,17 +39983,17 @@
         <v>16</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N58">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P58" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40003,7 +40003,7 @@
         <v>12</v>
       </c>
       <c r="T58" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="U58" s="185">
         <v>0</v>
@@ -40019,7 +40019,7 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="298"/>
+      <c r="A59" s="302"/>
       <c r="B59" s="122">
         <v>18</v>
       </c>
@@ -40048,17 +40048,17 @@
         <v>18</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N59">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P59" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40068,7 +40068,7 @@
         <v>13</v>
       </c>
       <c r="T59" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="U59" s="185">
         <v>2</v>
@@ -40084,7 +40084,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="298"/>
+      <c r="A60" s="302"/>
       <c r="B60" s="122">
         <v>31</v>
       </c>
@@ -40113,17 +40113,17 @@
         <v>31</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N60">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P60" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40133,7 +40133,7 @@
         <v>14</v>
       </c>
       <c r="T60" s="182" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="U60" s="186">
         <v>0</v>
@@ -40149,7 +40149,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="298"/>
+      <c r="A61" s="302"/>
       <c r="B61" s="122">
         <v>17</v>
       </c>
@@ -40178,17 +40178,17 @@
         <v>17</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N61">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P61" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40199,7 +40199,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="298"/>
+      <c r="A62" s="302"/>
       <c r="B62" s="122">
         <v>12</v>
       </c>
@@ -40228,17 +40228,17 @@
         <v>12</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N62">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P62" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40249,7 +40249,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="298"/>
+      <c r="A63" s="302"/>
       <c r="B63" s="122">
         <v>32</v>
       </c>
@@ -40278,17 +40278,17 @@
         <v>32</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N63">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P63" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40299,7 +40299,7 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="298"/>
+      <c r="A64" s="302"/>
       <c r="B64" s="122">
         <v>23</v>
       </c>
@@ -40328,17 +40328,17 @@
         <v>23</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M64" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N64">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P64" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40349,7 +40349,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="299"/>
+      <c r="A65" s="303"/>
       <c r="B65" s="122"/>
       <c r="C65" s="18">
         <f>AVERAGE(C57:C64)</f>
@@ -40381,14 +40381,14 @@
       </c>
       <c r="J65" s="122"/>
       <c r="M65" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N65">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P65" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40399,8 +40399,8 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="297" t="s">
-        <v>376</v>
+      <c r="A66" s="301" t="s">
+        <v>370</v>
       </c>
       <c r="B66" s="122">
         <v>25</v>
@@ -40430,17 +40430,17 @@
         <v>25</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N66">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P66" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40451,7 +40451,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="298"/>
+      <c r="A67" s="302"/>
       <c r="B67" s="122">
         <v>1</v>
       </c>
@@ -40480,17 +40480,17 @@
         <v>1</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N67">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P67" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40501,7 +40501,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="298"/>
+      <c r="A68" s="302"/>
       <c r="B68" s="122">
         <v>35</v>
       </c>
@@ -40530,17 +40530,17 @@
         <v>35</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N68">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P68" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40551,7 +40551,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="298"/>
+      <c r="A69" s="302"/>
       <c r="B69" s="122">
         <v>4</v>
       </c>
@@ -40580,17 +40580,17 @@
         <v>4</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N69">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P69" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40601,7 +40601,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="298"/>
+      <c r="A70" s="302"/>
       <c r="B70" s="122">
         <v>2</v>
       </c>
@@ -40630,17 +40630,17 @@
         <v>2</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M70" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N70">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P70" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40651,7 +40651,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="298"/>
+      <c r="A71" s="302"/>
       <c r="B71" s="122">
         <v>5</v>
       </c>
@@ -40680,17 +40680,17 @@
         <v>5</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N71">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P71" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40701,7 +40701,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="298"/>
+      <c r="A72" s="302"/>
       <c r="B72" s="122"/>
       <c r="C72" s="24">
         <f t="shared" ref="C72:I72" si="14">AVERAGE(C66:C71)</f>
@@ -40733,14 +40733,14 @@
       </c>
       <c r="J72" s="122"/>
       <c r="M72" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N72">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P72" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40751,8 +40751,8 @@
       </c>
     </row>
     <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="297" t="s">
-        <v>408</v>
+      <c r="A73" s="301" t="s">
+        <v>402</v>
       </c>
       <c r="B73" s="122">
         <v>9</v>
@@ -40782,17 +40782,17 @@
         <v>9</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N73">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P73" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40803,7 +40803,7 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="298"/>
+      <c r="A74" s="302"/>
       <c r="B74" s="122">
         <v>20</v>
       </c>
@@ -40832,17 +40832,17 @@
         <v>20</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N74">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P74" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40853,7 +40853,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="298"/>
+      <c r="A75" s="302"/>
       <c r="B75" s="122">
         <v>8</v>
       </c>
@@ -40882,17 +40882,17 @@
         <v>8</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M75" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N75">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P75" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40903,7 +40903,7 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="298"/>
+      <c r="A76" s="302"/>
       <c r="B76" s="122">
         <v>11</v>
       </c>
@@ -40932,17 +40932,17 @@
         <v>11</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N76">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P76" s="124" t="str">
         <f t="shared" si="11"/>
@@ -40953,7 +40953,7 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="298"/>
+      <c r="A77" s="302"/>
       <c r="B77" s="122">
         <v>10</v>
       </c>
@@ -40982,17 +40982,17 @@
         <v>10</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N77">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P77" s="124" t="str">
         <f t="shared" si="11"/>
@@ -41003,7 +41003,7 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="299"/>
+      <c r="A78" s="303"/>
       <c r="B78" s="122"/>
       <c r="C78" s="18">
         <f>AVERAGE(C73:C77)</f>
@@ -41035,14 +41035,14 @@
       </c>
       <c r="J78" s="122"/>
       <c r="M78" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N78">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P78" s="124" t="str">
         <f t="shared" si="11"/>
@@ -41053,8 +41053,8 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="297" t="s">
-        <v>409</v>
+      <c r="A79" s="301" t="s">
+        <v>403</v>
       </c>
       <c r="B79" s="122">
         <v>15</v>
@@ -41084,17 +41084,17 @@
         <v>15</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N79">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P79" s="124" t="str">
         <f t="shared" si="11"/>
@@ -41105,7 +41105,7 @@
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="298"/>
+      <c r="A80" s="302"/>
       <c r="B80" s="122">
         <v>6</v>
       </c>
@@ -41134,17 +41134,17 @@
         <v>6</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M80" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N80">
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P80" s="124" t="str">
         <f t="shared" si="11"/>
@@ -41155,7 +41155,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="298"/>
+      <c r="A81" s="302"/>
       <c r="B81" s="122">
         <v>14</v>
       </c>
@@ -41184,17 +41184,17 @@
         <v>14</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M81" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N81">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P81" s="124" t="str">
         <f t="shared" si="11"/>
@@ -41205,7 +41205,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="298"/>
+      <c r="A82" s="302"/>
       <c r="B82" s="122">
         <v>21</v>
       </c>
@@ -41234,11 +41234,11 @@
         <v>21</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="298"/>
+      <c r="A83" s="302"/>
       <c r="B83" s="122">
         <v>22</v>
       </c>
@@ -41267,11 +41267,11 @@
         <v>22</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="299"/>
+      <c r="A84" s="303"/>
       <c r="C84" s="25">
         <f>AVERAGE(C79:C83)</f>
         <v>113.71766359508258</v>
@@ -41306,7 +41306,7 @@
     </row>
     <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B85" s="122">
         <v>7</v>
@@ -41333,33 +41333,33 @@
         <v>36138</v>
       </c>
       <c r="K85" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="335"/>
-      <c r="C88" s="336" t="s">
-        <v>420</v>
-      </c>
-      <c r="D88" s="336" t="s">
-        <v>404</v>
-      </c>
-      <c r="E88" s="336" t="s">
-        <v>405</v>
-      </c>
-      <c r="F88" s="336" t="s">
-        <v>407</v>
-      </c>
-      <c r="G88" s="337" t="s">
-        <v>418</v>
-      </c>
-      <c r="H88" s="337" t="s">
-        <v>532</v>
+      <c r="B88" s="258"/>
+      <c r="C88" s="259" t="s">
+        <v>414</v>
+      </c>
+      <c r="D88" s="259" t="s">
+        <v>398</v>
+      </c>
+      <c r="E88" s="259" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="259" t="s">
+        <v>401</v>
+      </c>
+      <c r="G88" s="260" t="s">
+        <v>412</v>
+      </c>
+      <c r="H88" s="260" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C89" s="153">
         <v>2.8504271833282597E-2</v>
@@ -41377,13 +41377,13 @@
         <f>1-SUM(C89:F89)</f>
         <v>0.15462680639501503</v>
       </c>
-      <c r="H89" s="334">
+      <c r="H89" s="257">
         <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C90" s="153">
         <v>5.4320420398961511E-2</v>
@@ -41401,14 +41401,14 @@
         <f>1-SUM(C90:F90)</f>
         <v>0.23403439187605479</v>
       </c>
-      <c r="H90" s="334">
+      <c r="H90" s="257">
         <v>151</v>
       </c>
       <c r="I90" s="153"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C91" s="153">
         <v>6.0316297728848965E-2</v>
@@ -41426,14 +41426,14 @@
         <f>1-SUM(C91:F91)</f>
         <v>0.2795779597514032</v>
       </c>
-      <c r="H91" s="334">
+      <c r="H91" s="257">
         <v>62</v>
       </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C92" s="153">
         <v>0.38083715273764362</v>
@@ -41451,13 +41451,13 @@
         <f>1-SUM(C92:F92)</f>
         <v>0.21244443323128026</v>
       </c>
-      <c r="H92" s="334">
+      <c r="H92" s="257">
         <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C93" s="153">
         <v>0.27481836401964993</v>
@@ -41475,7 +41475,7 @@
         <f>1-SUM(C93:F93)</f>
         <v>0.2812705300061652</v>
       </c>
-      <c r="H93" s="334">
+      <c r="H93" s="257">
         <v>114</v>
       </c>
     </row>
@@ -41484,6 +41484,11 @@
     <sortCondition ref="N47:N81"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A56:A65"/>
     <mergeCell ref="K12:K20"/>
     <mergeCell ref="K21:K28"/>
     <mergeCell ref="K29:K34"/>
@@ -41494,11 +41499,6 @@
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="K2:K11"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A56:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D29:I41 D2:I27 C11 C20 C34 C40">
@@ -43022,7 +43022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N56" sqref="N56:P60"/>
     </sheetView>
   </sheetViews>
@@ -43036,51 +43036,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
+      <c r="A1" s="317" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
       <c r="J1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" t="s">
         <v>363</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>365</v>
       </c>
-      <c r="L1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" t="s">
-        <v>371</v>
-      </c>
       <c r="O1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" t="s">
+        <v>370</v>
+      </c>
+      <c r="S1" t="s">
         <v>372</v>
       </c>
-      <c r="P1" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>374</v>
-      </c>
-      <c r="R1" t="s">
-        <v>376</v>
-      </c>
-      <c r="S1" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="320" t="s">
-        <v>228</v>
+      <c r="A2" s="318" t="s">
+        <v>222</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J2" s="132">
         <v>66455</v>
@@ -43115,7 +43115,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B3" s="55">
         <v>1</v>
@@ -43124,7 +43124,7 @@
         <v>0.95583069375659946</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J3" s="132">
         <v>32981</v>
@@ -43159,7 +43159,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B4" s="58">
         <v>1</v>
@@ -43168,7 +43168,7 @@
         <v>0.73698116853193318</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J4" s="132">
         <v>32036</v>
@@ -43203,7 +43203,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="57" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B5" s="58">
         <v>1</v>
@@ -43212,7 +43212,7 @@
         <v>0.89449451317197171</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J5" s="132">
         <v>51386</v>
@@ -43247,7 +43247,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B6" s="58">
         <v>1</v>
@@ -43256,7 +43256,7 @@
         <v>0.58627103827342375</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J6" s="132">
         <v>147564</v>
@@ -43291,7 +43291,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B7" s="58">
         <v>1</v>
@@ -43300,7 +43300,7 @@
         <v>0.63837421641779291</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J7" s="132">
         <v>515125</v>
@@ -43335,7 +43335,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B8" s="58">
         <v>1</v>
@@ -43344,7 +43344,7 @@
         <v>0.83143707650059073</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J8" s="132">
         <v>13038</v>
@@ -43379,7 +43379,7 @@
     </row>
     <row r="9" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B9" s="58">
         <v>1</v>
@@ -43388,7 +43388,7 @@
         <v>0.8437759528460842</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J9" s="132">
         <v>854377</v>
@@ -43423,7 +43423,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B10" s="58">
         <v>1</v>
@@ -43432,7 +43432,7 @@
         <v>0.65988695644919915</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J10" s="132">
         <v>859005</v>
@@ -43467,7 +43467,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="57" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B11" s="58">
         <v>1</v>
@@ -43476,7 +43476,7 @@
         <v>0.70416228440375039</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="J11" s="132">
         <v>2100025</v>
@@ -43511,7 +43511,7 @@
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B12" s="61">
         <v>1</v>
@@ -43520,7 +43520,7 @@
         <v>0.51404465609786443</v>
       </c>
       <c r="D12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J12" s="132">
         <v>2069633</v>
@@ -43554,11 +43554,11 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="310" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="310"/>
-      <c r="C13" s="310"/>
+      <c r="A13" s="307" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="307"/>
+      <c r="C13" s="307"/>
       <c r="J13" s="132">
         <v>29374</v>
       </c>
@@ -43623,15 +43623,15 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="311" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="311"/>
-      <c r="C15" s="311"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="311"/>
+      <c r="A15" s="317" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="317"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="317"/>
+      <c r="G15" s="317"/>
       <c r="H15" s="63"/>
       <c r="J15" s="132">
         <v>1033218</v>
@@ -43665,19 +43665,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="315" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" s="317" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="318"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="318" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="318"/>
-      <c r="G16" s="318"/>
+      <c r="A16" s="313" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="319" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="315"/>
+      <c r="D16" s="315"/>
+      <c r="E16" s="315" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="315"/>
+      <c r="G16" s="315"/>
       <c r="H16" s="63"/>
       <c r="J16" s="132">
         <v>368530</v>
@@ -43711,24 +43711,24 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="316"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="64" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H17" s="63"/>
       <c r="J17" s="132">
@@ -43764,7 +43764,7 @@
     </row>
     <row r="18" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="66" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B18" s="55">
         <v>4.414910742166974</v>
@@ -43818,7 +43818,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="68" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B19" s="58">
         <v>1.6319105900242123</v>
@@ -43872,7 +43872,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B20" s="58">
         <v>1.3184372242580245</v>
@@ -43926,7 +43926,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B21" s="70">
         <v>0.72898866942870066</v>
@@ -43974,7 +43974,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B22" s="70">
         <v>0.71969443944535316</v>
@@ -44022,7 +44022,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="68" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B23" s="70">
         <v>0.47481785853640263</v>
@@ -44070,7 +44070,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B24" s="70">
         <v>0.35966835348811188</v>
@@ -44118,7 +44118,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="68" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B25" s="70">
         <v>0.18517079305276868</v>
@@ -44166,7 +44166,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="68" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B26" s="70">
         <v>0.15025494497051356</v>
@@ -44214,7 +44214,7 @@
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B27" s="73">
         <v>1.6146384628940698E-2</v>
@@ -44261,15 +44261,15 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="310" t="s">
-        <v>258</v>
-      </c>
-      <c r="B28" s="310"/>
-      <c r="C28" s="310"/>
-      <c r="D28" s="310"/>
-      <c r="E28" s="310"/>
-      <c r="F28" s="310"/>
-      <c r="G28" s="310"/>
+      <c r="A28" s="307" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="307"/>
+      <c r="C28" s="307"/>
+      <c r="D28" s="307"/>
+      <c r="E28" s="307"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="307"/>
       <c r="H28" s="63"/>
       <c r="J28" s="132">
         <v>10212</v>
@@ -44335,12 +44335,12 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="311" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="311"/>
-      <c r="C30" s="311"/>
-      <c r="D30" s="311"/>
+      <c r="A30" s="317" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="317"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="317"/>
       <c r="E30" s="63"/>
       <c r="J30" s="132">
         <v>10145</v>
@@ -44374,14 +44374,14 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="315" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="317" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="318"/>
-      <c r="D31" s="319"/>
+      <c r="A31" s="313" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="319" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="315"/>
+      <c r="D31" s="316"/>
       <c r="E31" s="63"/>
       <c r="J31" s="132">
         <v>3416</v>
@@ -44415,15 +44415,15 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="316"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="77" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E32" s="63"/>
       <c r="J32" s="132">
@@ -44459,7 +44459,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B33" s="80">
         <v>0.9710483715006506</v>
@@ -44504,7 +44504,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="57" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B34" s="70">
         <v>0.93936377925107706</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B35" s="70">
         <v>0.85261095225526762</v>
@@ -44594,7 +44594,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B36" s="70">
         <v>0.75508351769589144</v>
@@ -44639,7 +44639,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B37" s="70">
         <v>-0.65676245607020423</v>
@@ -44654,7 +44654,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="57" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B38" s="70">
         <v>-0.13444998502235569</v>
@@ -44669,7 +44669,7 @@
     </row>
     <row r="39" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="57" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B39" s="70">
         <v>0.60422743237226262</v>
@@ -44684,7 +44684,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="57" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B40" s="70">
         <v>0.15125903581487926</v>
@@ -44699,7 +44699,7 @@
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B41" s="70">
         <v>-0.31053906797483671</v>
@@ -44711,24 +44711,24 @@
         <v>0.77915170652233812</v>
       </c>
       <c r="E41" s="63"/>
-      <c r="J41" s="311" t="s">
-        <v>384</v>
-      </c>
-      <c r="K41" s="311"/>
-      <c r="L41" s="311"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="311"/>
-      <c r="O41" s="311"/>
-      <c r="P41" s="311"/>
-      <c r="Q41" s="311"/>
-      <c r="R41" s="311"/>
-      <c r="S41" s="311"/>
-      <c r="T41" s="311"/>
-      <c r="U41" s="311"/>
+      <c r="J41" s="317" t="s">
+        <v>378</v>
+      </c>
+      <c r="K41" s="317"/>
+      <c r="L41" s="317"/>
+      <c r="M41" s="317"/>
+      <c r="N41" s="317"/>
+      <c r="O41" s="317"/>
+      <c r="P41" s="317"/>
+      <c r="Q41" s="317"/>
+      <c r="R41" s="317"/>
+      <c r="S41" s="317"/>
+      <c r="T41" s="317"/>
+      <c r="U41" s="317"/>
     </row>
     <row r="42" spans="1:21" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B42" s="73">
         <v>0.29944043917852792</v>
@@ -44741,53 +44741,53 @@
       </c>
       <c r="E42" s="63"/>
       <c r="J42" s="207" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K42" s="208"/>
       <c r="L42" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N42" s="133" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" s="133" t="s">
         <v>362</v>
       </c>
-      <c r="M42" s="133" t="s">
+      <c r="P42" s="133" t="s">
         <v>364</v>
       </c>
-      <c r="N42" s="133" t="s">
-        <v>366</v>
-      </c>
-      <c r="O42" s="133" t="s">
-        <v>368</v>
-      </c>
-      <c r="P42" s="133" t="s">
-        <v>370</v>
-      </c>
       <c r="Q42" s="133" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="R42" s="133" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="S42" s="133" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="T42" s="133" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="U42" s="53" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="310" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" s="310"/>
-      <c r="C43" s="310"/>
-      <c r="D43" s="310"/>
+      <c r="A43" s="307" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="307"/>
+      <c r="C43" s="307"/>
+      <c r="D43" s="307"/>
       <c r="E43" s="63"/>
-      <c r="J43" s="312" t="s">
-        <v>385</v>
+      <c r="J43" s="320" t="s">
+        <v>379</v>
       </c>
       <c r="K43" s="134" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L43" s="55">
         <v>1</v>
@@ -44821,16 +44821,16 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="310" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="310"/>
-      <c r="C44" s="310"/>
-      <c r="D44" s="310"/>
+      <c r="A44" s="307" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="307"/>
+      <c r="C44" s="307"/>
+      <c r="D44" s="307"/>
       <c r="E44" s="63"/>
-      <c r="J44" s="313"/>
+      <c r="J44" s="311"/>
       <c r="K44" s="135" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L44" s="141">
         <v>0.84755645804503776</v>
@@ -44864,9 +44864,9 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J45" s="313"/>
+      <c r="J45" s="311"/>
       <c r="K45" s="135" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L45" s="141">
         <v>0.98723823119147114</v>
@@ -44900,16 +44900,16 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="311" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="311"/>
-      <c r="C46" s="311"/>
-      <c r="D46" s="311"/>
+      <c r="A46" s="317" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="317"/>
+      <c r="C46" s="317"/>
+      <c r="D46" s="317"/>
       <c r="E46" s="63"/>
-      <c r="J46" s="313"/>
+      <c r="J46" s="311"/>
       <c r="K46" s="135" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L46" s="141">
         <v>0.77534933508420123</v>
@@ -44943,18 +44943,18 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="315" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="317" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" s="318"/>
-      <c r="D47" s="319"/>
+      <c r="A47" s="313" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="319" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="315"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="63"/>
-      <c r="J47" s="313"/>
+      <c r="J47" s="311"/>
       <c r="K47" s="135" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L47" s="70">
         <v>-0.38498696542446259</v>
@@ -44988,20 +44988,20 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="316"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="77" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E48" s="63"/>
-      <c r="J48" s="313"/>
+      <c r="J48" s="311"/>
       <c r="K48" s="135" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L48" s="70">
         <v>0.37827889461950936</v>
@@ -45036,7 +45036,7 @@
     </row>
     <row r="49" spans="1:25" ht="23.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B49" s="80">
         <v>0.24359232014153448</v>
@@ -45048,9 +45048,9 @@
         <v>-2.7934709837800015E-2</v>
       </c>
       <c r="E49" s="63"/>
-      <c r="J49" s="313"/>
+      <c r="J49" s="311"/>
       <c r="K49" s="135" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L49" s="141">
         <v>0.84800997041022508</v>
@@ -45085,7 +45085,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="57" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B50" s="70">
         <v>0.21764828819959398</v>
@@ -45097,9 +45097,9 @@
         <v>2.1664779100642829E-2</v>
       </c>
       <c r="E50" s="63"/>
-      <c r="J50" s="313"/>
+      <c r="J50" s="311"/>
       <c r="K50" s="135" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L50" s="70">
         <v>0.61524476390302507</v>
@@ -45134,7 +45134,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="57" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B51" s="70">
         <v>0.23562581645956127</v>
@@ -45146,9 +45146,9 @@
         <v>-2.6269457529749383E-2</v>
       </c>
       <c r="E51" s="63"/>
-      <c r="J51" s="313"/>
+      <c r="J51" s="311"/>
       <c r="K51" s="135" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L51" s="70">
         <v>5.7186492039788123E-3</v>
@@ -45183,7 +45183,7 @@
     </row>
     <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B52" s="70">
         <v>0.20756830428889064</v>
@@ -45195,9 +45195,9 @@
         <v>-0.11871053389509453</v>
       </c>
       <c r="E52" s="63"/>
-      <c r="J52" s="314"/>
+      <c r="J52" s="312"/>
       <c r="K52" s="136" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L52" s="73">
         <v>0.65618282611959056</v>
@@ -45232,7 +45232,7 @@
     </row>
     <row r="53" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B53" s="70">
         <v>-0.13723200347104428</v>
@@ -45247,7 +45247,7 @@
     </row>
     <row r="54" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="57" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B54" s="70">
         <v>-0.12928867491541443</v>
@@ -45262,7 +45262,7 @@
     </row>
     <row r="55" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B55" s="70">
         <v>8.6184617680871337E-2</v>
@@ -45275,16 +45275,16 @@
       </c>
       <c r="E55" s="63"/>
       <c r="J55" s="173" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K55" s="173"/>
       <c r="L55" s="173"/>
-      <c r="R55" s="321" t="s">
-        <v>394</v>
-      </c>
-      <c r="S55" s="321"/>
-      <c r="T55" s="321"/>
-      <c r="U55" s="321"/>
+      <c r="R55" s="308" t="s">
+        <v>388</v>
+      </c>
+      <c r="S55" s="308"/>
+      <c r="T55" s="308"/>
+      <c r="U55" s="308"/>
       <c r="V55" s="151"/>
       <c r="W55" s="151"/>
       <c r="X55" s="151"/>
@@ -45292,7 +45292,7 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B56" s="70">
         <v>3.521462395684534E-2</v>
@@ -45305,32 +45305,32 @@
       </c>
       <c r="E56" s="63"/>
       <c r="J56" s="180" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K56" s="175" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L56" s="176" t="s">
-        <v>387</v>
-      </c>
-      <c r="N56" s="321" t="s">
-        <v>388</v>
-      </c>
-      <c r="O56" s="321"/>
-      <c r="P56" s="321"/>
-      <c r="R56" s="315" t="s">
-        <v>395</v>
-      </c>
-      <c r="S56" s="318" t="s">
-        <v>396</v>
-      </c>
-      <c r="T56" s="318"/>
-      <c r="U56" s="319"/>
+        <v>381</v>
+      </c>
+      <c r="N56" s="308" t="s">
+        <v>382</v>
+      </c>
+      <c r="O56" s="308"/>
+      <c r="P56" s="308"/>
+      <c r="R56" s="313" t="s">
+        <v>389</v>
+      </c>
+      <c r="S56" s="315" t="s">
+        <v>390</v>
+      </c>
+      <c r="T56" s="315"/>
+      <c r="U56" s="316"/>
       <c r="Y56" s="63"/>
     </row>
     <row r="57" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B57" s="70">
         <v>-0.11562042350384741</v>
@@ -45343,7 +45343,7 @@
       </c>
       <c r="E57" s="63"/>
       <c r="J57" s="161" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K57" s="177">
         <v>1</v>
@@ -45351,28 +45351,28 @@
       <c r="L57" s="164">
         <v>0.94336990469912863</v>
       </c>
-      <c r="N57" s="322" t="s">
-        <v>389</v>
-      </c>
-      <c r="O57" s="323"/>
+      <c r="N57" s="309" t="s">
+        <v>383</v>
+      </c>
+      <c r="O57" s="310"/>
       <c r="P57" s="143">
         <v>0.75626582815288179</v>
       </c>
-      <c r="R57" s="316"/>
+      <c r="R57" s="314"/>
       <c r="S57" s="65" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="T57" s="65" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="U57" s="147" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Y57" s="63"/>
     </row>
     <row r="58" spans="1:25" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B58" s="73">
         <v>-4.1089394342650368E-2</v>
@@ -45385,7 +45385,7 @@
       </c>
       <c r="E58" s="63"/>
       <c r="J58" s="165" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K58" s="178">
         <v>1</v>
@@ -45393,17 +45393,17 @@
       <c r="L58" s="168">
         <v>0.79911853862509408</v>
       </c>
-      <c r="N58" s="313" t="s">
-        <v>390</v>
+      <c r="N58" s="311" t="s">
+        <v>384</v>
       </c>
       <c r="O58" s="135" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P58" s="144">
         <v>346.08618586845614</v>
       </c>
       <c r="R58" s="66" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="S58" s="154">
         <v>5.0676369372834014</v>
@@ -45417,15 +45417,15 @@
       <c r="Y58" s="63"/>
     </row>
     <row r="59" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="310" t="s">
-        <v>259</v>
-      </c>
-      <c r="B59" s="310"/>
-      <c r="C59" s="310"/>
-      <c r="D59" s="310"/>
+      <c r="A59" s="307" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="307"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="63"/>
       <c r="J59" s="165" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K59" s="178">
         <v>1</v>
@@ -45433,15 +45433,15 @@
       <c r="L59" s="168">
         <v>0.88971222035056763</v>
       </c>
-      <c r="N59" s="313"/>
+      <c r="N59" s="311"/>
       <c r="O59" s="135" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P59" s="145">
         <v>45</v>
       </c>
       <c r="R59" s="68" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="S59" s="156">
         <v>1.8510353668532256</v>
@@ -45456,7 +45456,7 @@
     </row>
     <row r="60" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J60" s="165" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K60" s="178">
         <v>1</v>
@@ -45464,15 +45464,15 @@
       <c r="L60" s="168">
         <v>0.72456193164480165</v>
       </c>
-      <c r="N60" s="314"/>
+      <c r="N60" s="312"/>
       <c r="O60" s="136" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P60" s="146">
         <v>4.4543692252842443E-48</v>
       </c>
       <c r="R60" s="68" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S60" s="156">
         <v>1.3715652902219282</v>
@@ -45487,7 +45487,7 @@
     </row>
     <row r="61" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J61" s="165" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K61" s="178">
         <v>1</v>
@@ -45503,7 +45503,7 @@
     </row>
     <row r="62" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="J62" s="165" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K62" s="178">
         <v>1</v>
@@ -45519,7 +45519,7 @@
     </row>
     <row r="63" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="J63" s="165" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K63" s="178">
         <v>1</v>
@@ -45535,7 +45535,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="J64" s="165" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K64" s="178">
         <v>1</v>
@@ -45551,7 +45551,7 @@
     </row>
     <row r="65" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J65" s="165" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K65" s="178">
         <v>1</v>
@@ -45567,7 +45567,7 @@
     </row>
     <row r="66" spans="10:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J66" s="169" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K66" s="179">
         <v>1</v>
@@ -45583,7 +45583,7 @@
     </row>
     <row r="67" spans="10:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J67" s="174" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K67" s="174"/>
       <c r="L67" s="174"/>
@@ -45594,53 +45594,53 @@
       <c r="Y67" s="63"/>
     </row>
     <row r="68" spans="10:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="R68" s="310" t="s">
-        <v>250</v>
-      </c>
-      <c r="S68" s="310"/>
-      <c r="T68" s="310"/>
-      <c r="U68" s="310"/>
-      <c r="V68" s="310"/>
-      <c r="W68" s="310"/>
-      <c r="X68" s="310"/>
+      <c r="R68" s="307" t="s">
+        <v>244</v>
+      </c>
+      <c r="S68" s="307"/>
+      <c r="T68" s="307"/>
+      <c r="U68" s="307"/>
+      <c r="V68" s="307"/>
+      <c r="W68" s="307"/>
+      <c r="X68" s="307"/>
       <c r="Y68" s="63"/>
     </row>
     <row r="72" spans="10:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J72" s="303" t="s">
-        <v>480</v>
-      </c>
-      <c r="K72" s="303"/>
-      <c r="L72" s="303"/>
-      <c r="M72" s="303"/>
+      <c r="J72" s="321" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" s="321"/>
+      <c r="L72" s="321"/>
+      <c r="M72" s="321"/>
       <c r="N72" s="63"/>
     </row>
     <row r="73" spans="10:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J73" s="304" t="s">
-        <v>228</v>
-      </c>
-      <c r="K73" s="306" t="s">
-        <v>395</v>
-      </c>
-      <c r="L73" s="307"/>
-      <c r="M73" s="308"/>
+      <c r="J73" s="322" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" s="324" t="s">
+        <v>389</v>
+      </c>
+      <c r="L73" s="325"/>
+      <c r="M73" s="326"/>
       <c r="N73" s="63"/>
     </row>
     <row r="74" spans="10:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J74" s="305"/>
+      <c r="J74" s="323"/>
       <c r="K74" s="158" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L74" s="159" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M74" s="160" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N74" s="63"/>
     </row>
     <row r="75" spans="10:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J75" s="161" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K75" s="162">
         <v>0.96174300563723625</v>
@@ -45655,7 +45655,7 @@
     </row>
     <row r="76" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J76" s="165" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K76" s="166">
         <v>0.93381777596651694</v>
@@ -45670,7 +45670,7 @@
     </row>
     <row r="77" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J77" s="165" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K77" s="166">
         <v>0.87793636332336866</v>
@@ -45685,7 +45685,7 @@
     </row>
     <row r="78" spans="10:25" ht="24" x14ac:dyDescent="0.2">
       <c r="J78" s="165" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K78" s="166">
         <v>0.84957174081432529</v>
@@ -45700,7 +45700,7 @@
     </row>
     <row r="79" spans="10:25" ht="24" x14ac:dyDescent="0.2">
       <c r="J79" s="165" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K79" s="166">
         <v>0.83366196012611593</v>
@@ -45715,7 +45715,7 @@
     </row>
     <row r="80" spans="10:25" ht="24" x14ac:dyDescent="0.2">
       <c r="J80" s="165" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K80" s="166">
         <v>0.3005098964617649</v>
@@ -45730,7 +45730,7 @@
     </row>
     <row r="81" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J81" s="165" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K81" s="166">
         <v>0.62674195116217579</v>
@@ -45745,7 +45745,7 @@
     </row>
     <row r="82" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J82" s="165" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K82" s="166">
         <v>-0.52062184871152972</v>
@@ -45760,7 +45760,7 @@
     </row>
     <row r="83" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J83" s="165" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K83" s="166">
         <v>-6.6314722236175544E-2</v>
@@ -45775,7 +45775,7 @@
     </row>
     <row r="84" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J84" s="169" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K84" s="170">
         <v>0.56971800228186342</v>
@@ -45789,38 +45789,30 @@
       <c r="N84" s="63"/>
     </row>
     <row r="85" spans="10:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J85" s="309" t="s">
-        <v>399</v>
-      </c>
-      <c r="K85" s="309"/>
-      <c r="L85" s="309"/>
-      <c r="M85" s="309"/>
+      <c r="J85" s="327" t="s">
+        <v>393</v>
+      </c>
+      <c r="K85" s="327"/>
+      <c r="L85" s="327"/>
+      <c r="M85" s="327"/>
       <c r="N85" s="63"/>
     </row>
     <row r="86" spans="10:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J86" s="309" t="s">
-        <v>419</v>
-      </c>
-      <c r="K86" s="309"/>
-      <c r="L86" s="309"/>
-      <c r="M86" s="309"/>
+      <c r="J86" s="327" t="s">
+        <v>413</v>
+      </c>
+      <c r="K86" s="327"/>
+      <c r="L86" s="327"/>
+      <c r="M86" s="327"/>
       <c r="N86" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A43:D43"/>
@@ -45834,11 +45826,19 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:U56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L43:U52">
@@ -45860,39 +45860,39 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="324" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="325"/>
+      <c r="A1" s="328" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="329"/>
       <c r="C1" s="83" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="324" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="325"/>
+        <v>259</v>
+      </c>
+      <c r="G1" s="328" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="329"/>
       <c r="I1" s="83" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J1" s="108" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K1" s="83" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="84" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="85">
         <v>3</v>
@@ -45904,10 +45904,10 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H2" s="107" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I2" s="85">
         <v>3</v>
@@ -45921,10 +45921,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="86" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C3" s="88">
         <v>13</v>
@@ -45936,10 +45936,10 @@
         <v>0.28439999999999999</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I3" s="88">
         <v>13</v>
@@ -45954,7 +45954,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="87" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C4" s="88">
         <v>8</v>
@@ -45965,7 +45965,7 @@
       <c r="E4" s="88"/>
       <c r="G4" s="86"/>
       <c r="H4" s="87" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I4" s="88">
         <v>8</v>
@@ -45978,7 +45978,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="87" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C5" s="88">
         <v>8</v>
@@ -45989,7 +45989,7 @@
       <c r="E5" s="88"/>
       <c r="G5" s="86"/>
       <c r="H5" s="87" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I5" s="88">
         <v>8</v>
@@ -46002,7 +46002,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="90"/>
       <c r="B6" s="91" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C6" s="92">
         <v>3</v>
@@ -46013,7 +46013,7 @@
       <c r="E6" s="92"/>
       <c r="G6" s="90"/>
       <c r="H6" s="91" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I6" s="92">
         <v>3</v>
@@ -46025,10 +46025,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="93" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C7" s="95">
         <v>16</v>
@@ -46040,10 +46040,10 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H7" s="94" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I7" s="95">
         <v>16</v>
@@ -46057,10 +46057,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="86" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C8" s="88">
         <v>9</v>
@@ -46072,10 +46072,10 @@
         <v>0.10440000000000001</v>
       </c>
       <c r="G8" s="86" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I8" s="88">
         <v>9</v>
@@ -46090,7 +46090,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="86"/>
       <c r="B9" s="87" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C9" s="88">
         <v>5</v>
@@ -46101,7 +46101,7 @@
       <c r="E9" s="88"/>
       <c r="G9" s="86"/>
       <c r="H9" s="87" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I9" s="88">
         <v>5</v>
@@ -46114,7 +46114,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="90"/>
       <c r="B10" s="91" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C10" s="92">
         <v>5</v>
@@ -46125,7 +46125,7 @@
       <c r="E10" s="92"/>
       <c r="G10" s="90"/>
       <c r="H10" s="91" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I10" s="92">
         <v>5</v>
@@ -46137,10 +46137,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C11" s="95">
         <v>4</v>
@@ -46152,10 +46152,10 @@
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H11" s="94" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I11" s="95">
         <v>4</v>
@@ -46169,10 +46169,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C12" s="88">
         <v>20</v>
@@ -46184,10 +46184,10 @@
         <v>0.24310000000000001</v>
       </c>
       <c r="G12" s="86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I12" s="88">
         <v>20</v>
@@ -46202,7 +46202,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="91" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C13" s="92">
         <v>11</v>
@@ -46213,7 +46213,7 @@
       <c r="E13" s="92"/>
       <c r="G13" s="90"/>
       <c r="H13" s="91" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I13" s="92">
         <v>11</v>
@@ -46225,10 +46225,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="93" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C14" s="95">
         <v>13</v>
@@ -46240,10 +46240,10 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I14" s="95">
         <v>13</v>
@@ -46257,10 +46257,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C15" s="88">
         <v>9</v>
@@ -46272,10 +46272,10 @@
         <v>0.24540000000000001</v>
       </c>
       <c r="G15" s="86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H15" s="87" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I15" s="88">
         <v>9</v>
@@ -46290,7 +46290,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="90"/>
       <c r="B16" s="91" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C16" s="92">
         <v>13</v>
@@ -46301,7 +46301,7 @@
       <c r="E16" s="92"/>
       <c r="G16" s="90"/>
       <c r="H16" s="91" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I16" s="92">
         <v>13</v>
@@ -46313,10 +46313,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="86" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C17" s="96">
         <v>5</v>
@@ -46328,10 +46328,10 @@
         <v>1.14E-2</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H17" s="87" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I17" s="96">
         <v>5</v>
@@ -46345,10 +46345,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C18" s="96">
         <v>11</v>
@@ -46360,10 +46360,10 @@
         <v>0.1227</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H18" s="87" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I18" s="96">
         <v>11</v>
@@ -46378,7 +46378,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="86"/>
       <c r="B19" s="87" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C19" s="88">
         <v>11</v>
@@ -46389,7 +46389,7 @@
       <c r="E19" s="88"/>
       <c r="G19" s="86"/>
       <c r="H19" s="87" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I19" s="88">
         <v>11</v>
@@ -46402,7 +46402,7 @@
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
       <c r="B20" s="99" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C20" s="100">
         <v>8</v>
@@ -46413,7 +46413,7 @@
       <c r="E20" s="100"/>
       <c r="G20" s="98"/>
       <c r="H20" s="99" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I20" s="100">
         <v>8</v>
@@ -46424,49 +46424,49 @@
       <c r="K20" s="100"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="327" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" s="332"/>
-      <c r="C21" s="326" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="327"/>
+      <c r="A21" s="331" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="336"/>
+      <c r="C21" s="330" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="331"/>
       <c r="E21" s="96">
         <v>35</v>
       </c>
-      <c r="G21" s="327" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="332"/>
-      <c r="I21" s="326" t="s">
-        <v>270</v>
-      </c>
-      <c r="J21" s="327"/>
+      <c r="G21" s="331" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="336"/>
+      <c r="I21" s="330" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="331"/>
       <c r="K21" s="96">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="331" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="333"/>
-      <c r="C22" s="330" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="331"/>
+      <c r="A22" s="335" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="337"/>
+      <c r="C22" s="334" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="335"/>
       <c r="E22" s="100">
         <v>0.53739999999999999</v>
       </c>
-      <c r="G22" s="331" t="s">
-        <v>274</v>
-      </c>
-      <c r="H22" s="333"/>
-      <c r="I22" s="328" t="s">
-        <v>271</v>
-      </c>
-      <c r="J22" s="329"/>
+      <c r="G22" s="335" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="337"/>
+      <c r="I22" s="332" t="s">
+        <v>265</v>
+      </c>
+      <c r="J22" s="333"/>
       <c r="K22" s="100">
         <v>0.51342197344825824</v>
       </c>

--- a/chp3/chp3.xlsx
+++ b/chp3/chp3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC4037-E6C4-4F72-9C40-828541A48203}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5837E2-FB0B-45CA-8949-25339E43E935}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="figures" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="540">
   <si>
     <t>rail transit</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2089,6 +2089,35 @@
   </si>
   <si>
     <t>Sakurazaka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population density</t>
+  </si>
+  <si>
+    <t>Station type</t>
+  </si>
+  <si>
+    <t>Station name</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3325,7 +3354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4002,6 +4031,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4038,60 +4109,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4113,6 +4130,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4130,48 +4159,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4192,6 +4179,48 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4224,6 +4253,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -4235,9 +4265,15 @@
   <colors>
     <mruColors>
       <color rgb="FF9933FF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FF808080"/>
+      <color rgb="FF66FFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FF85023E"/>
+      <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9314,6 +9350,689 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Land Use Constitution for each type</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$C$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$B$89:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Low-density residence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High-density residence</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Downtown commerce</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$C$89:$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8504271833282597E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4320420398961511E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0316297728848965E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38083715273764362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27481836401964993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3845-48F0-8A07-F9511D660BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$D$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commerce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$B$89:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Low-density residence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High-density residence</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Downtown commerce</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$D$89:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.9899534685992174E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0302558438692383E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0841940326374596E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25757206517749559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14200596303359431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3845-48F0-8A07-F9511D660BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$E$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$B$89:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Low-density residence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High-density residence</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Downtown commerce</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$E$89:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69225202863888113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59664555486648918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40216925562960942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1367833202995466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27094896967443904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3845-48F0-8A07-F9511D660BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$F$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$B$89:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Low-density residence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High-density residence</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Downtown commerce</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$F$89:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4717358446829142E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4697074419802112E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20709454656376383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.236302855403389E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0956173266151549E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3845-48F0-8A07-F9511D660BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$G$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$B$89:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Low-density residence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High-density residence</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Downtown commerce</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$G$89:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.15462680639501503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23403439187605479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2795779597514032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21244443323128026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2812705300061652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3845-48F0-8A07-F9511D660BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="1897249567"/>
+        <c:axId val="1777356991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1897249567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1777356991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1777356991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1897249567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -9327,10 +10046,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US"/>
               <a:t>Land Use Constitution for each type</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9375,18 +10094,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'classification on land use'!$B$89</c:f>
+              <c:f>'classification on land use'!$AE$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Low-density residence</c:v>
+                  <c:v>Commerce</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9396,54 +10115,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'classification on land use'!$C$88:$G$88</c:f>
+              <c:f>'classification on land use'!$AC$56:$AC$60</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Office</c:v>
+                  <c:v>賀茂</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Commerce</c:v>
+                  <c:v>藤崎</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Residence</c:v>
+                  <c:v>箱崎九大前</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Education</c:v>
+                  <c:v>呉服町</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Other</c:v>
+                  <c:v>天神</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'classification on land use'!$C$89:$G$89</c:f>
+              <c:f>'classification on land use'!$AE$56:$AE$60</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8504271833282597E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9899534685992174E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69225202863888113</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4717358446829142E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15462680639501503</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1AE-444C-A5CA-E2B8B20B958D}"/>
+              <c16:uniqueId val="{00000000-7023-4410-BB83-9CCADCA1C379}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9452,11 +10171,165 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'classification on land use'!$B$90</c:f>
+              <c:f>'classification on land use'!$AF$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>High-density residence</c:v>
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$AC$56:$AC$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>賀茂</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>藤崎</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>箱崎九大前</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>呉服町</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>天神</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$AF$56:$AF$60</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7023-4410-BB83-9CCADCA1C379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$AG$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'classification on land use'!$AC$56:$AC$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>賀茂</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>藤崎</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>箱崎九大前</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>呉服町</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>天神</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'classification on land use'!$AG$56:$AG$60</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7023-4410-BB83-9CCADCA1C379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'classification on land use'!$AH$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Education</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9473,67 +10346,67 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'classification on land use'!$C$88:$G$88</c:f>
+              <c:f>'classification on land use'!$AC$56:$AC$60</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Office</c:v>
+                  <c:v>賀茂</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Commerce</c:v>
+                  <c:v>藤崎</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Residence</c:v>
+                  <c:v>箱崎九大前</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Education</c:v>
+                  <c:v>呉服町</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Other</c:v>
+                  <c:v>天神</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'classification on land use'!$C$90:$G$90</c:f>
+              <c:f>'classification on land use'!$AH$56:$AH$60</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.4320420398961511E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0302558438692383E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59664555486648918</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4697074419802112E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23403439187605479</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B1AE-444C-A5CA-E2B8B20B958D}"/>
+              <c16:uniqueId val="{00000003-7023-4410-BB83-9CCADCA1C379}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'classification on land use'!$B$91</c:f>
+              <c:f>'classification on land use'!$AI$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9550,211 +10423,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'classification on land use'!$C$88:$G$88</c:f>
+              <c:f>'classification on land use'!$AC$56:$AC$60</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Office</c:v>
+                  <c:v>賀茂</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Commerce</c:v>
+                  <c:v>藤崎</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Residence</c:v>
+                  <c:v>箱崎九大前</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Education</c:v>
+                  <c:v>呉服町</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Other</c:v>
+                  <c:v>天神</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'classification on land use'!$C$91:$G$91</c:f>
+              <c:f>'classification on land use'!$AI$56:$AI$60</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0316297728848965E-2</c:v>
+                  <c:v>6.0000000000000053E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0841940326374596E-2</c:v>
+                  <c:v>6.0000000000000053E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40216925562960942</c:v>
+                  <c:v>0.16000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20709454656376383</c:v>
+                  <c:v>8.9999999999999969E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2795779597514032</c:v>
+                  <c:v>8.9999999999999969E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B1AE-444C-A5CA-E2B8B20B958D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'classification on land use'!$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Downtown commerce</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'classification on land use'!$C$88:$G$88</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Office</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Commerce</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Residence</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'classification on land use'!$C$92:$G$92</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.38083715273764362</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25757206517749559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1367833202995466</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.236302855403389E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21244443323128026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B1AE-444C-A5CA-E2B8B20B958D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'classification on land use'!$B$93</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Office</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'classification on land use'!$C$88:$G$88</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Office</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Commerce</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Residence</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'classification on land use'!$C$93:$G$93</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.27481836401964993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14200596303359431</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27094896967443904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0956173266151549E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2812705300061652</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B1AE-444C-A5CA-E2B8B20B958D}"/>
+              <c16:uniqueId val="{00000004-7023-4410-BB83-9CCADCA1C379}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16044,6 +16760,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20990,6 +21746,557 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26288,16 +27595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>260104</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>71805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>387803</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>24492</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>505032</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>46473</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26317,6 +27624,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>49357</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>536740</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>27200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D0CAFB-DA3A-4975-ABA7-3825F5989CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -28736,12 +30081,12 @@
       <c r="G1" s="204" t="s">
         <v>447</v>
       </c>
-      <c r="W1" s="278" t="s">
+      <c r="W1" s="270" t="s">
         <v>475</v>
       </c>
-      <c r="X1" s="278"/>
-      <c r="Y1" s="278"/>
-      <c r="Z1" s="278"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="270"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="204">
@@ -28775,20 +30120,20 @@
       <c r="N2" t="s">
         <v>221</v>
       </c>
-      <c r="R2" s="269" t="s">
+      <c r="R2" s="283" t="s">
         <v>388</v>
       </c>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="W2" s="281" t="s">
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="W2" s="273" t="s">
         <v>470</v>
       </c>
-      <c r="X2" s="283" t="s">
+      <c r="X2" s="275" t="s">
         <v>389</v>
       </c>
-      <c r="Y2" s="284"/>
-      <c r="Z2" s="285"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="204">
@@ -28812,7 +30157,7 @@
       <c r="G3" s="204" t="s">
         <v>450</v>
       </c>
-      <c r="J3" s="276" t="s">
+      <c r="J3" s="269" t="s">
         <v>384</v>
       </c>
       <c r="K3" t="s">
@@ -28830,15 +30175,15 @@
       <c r="P3" s="210" t="s">
         <v>381</v>
       </c>
-      <c r="R3" s="270" t="s">
+      <c r="R3" s="284" t="s">
         <v>389</v>
       </c>
-      <c r="S3" s="272" t="s">
+      <c r="S3" s="286" t="s">
         <v>390</v>
       </c>
-      <c r="T3" s="273"/>
-      <c r="U3" s="274"/>
-      <c r="W3" s="282"/>
+      <c r="T3" s="287"/>
+      <c r="U3" s="288"/>
+      <c r="W3" s="274"/>
       <c r="X3" s="219">
         <v>1</v>
       </c>
@@ -28869,7 +30214,7 @@
       <c r="G4" s="204" t="s">
         <v>455</v>
       </c>
-      <c r="J4" s="276"/>
+      <c r="J4" s="269"/>
       <c r="K4" t="s">
         <v>386</v>
       </c>
@@ -28885,7 +30230,7 @@
       <c r="P4" s="209">
         <v>0.94299999999999995</v>
       </c>
-      <c r="R4" s="271"/>
+      <c r="R4" s="285"/>
       <c r="S4" s="211" t="s">
         <v>329</v>
       </c>
@@ -28909,10 +30254,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="275" t="s">
+      <c r="A5" s="289" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="275"/>
+      <c r="B5" s="289"/>
       <c r="C5" s="206"/>
       <c r="D5" s="206"/>
       <c r="E5" s="204" t="s">
@@ -28922,7 +30267,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="205"/>
-      <c r="J5" s="276"/>
+      <c r="J5" s="269"/>
       <c r="K5" t="s">
         <v>387</v>
       </c>
@@ -29240,7 +30585,7 @@
       <c r="O18" s="229" t="s">
         <v>479</v>
       </c>
-      <c r="Q18" s="279" t="s">
+      <c r="Q18" s="271" t="s">
         <v>478</v>
       </c>
       <c r="R18" s="237" t="s">
@@ -29275,7 +30620,7 @@
       <c r="O19" s="233">
         <v>3416</v>
       </c>
-      <c r="Q19" s="280"/>
+      <c r="Q19" s="272"/>
       <c r="R19" s="238" t="s">
         <v>484</v>
       </c>
@@ -29448,10 +30793,10 @@
     </row>
     <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="278" t="s">
         <v>491</v>
       </c>
-      <c r="C27" s="265"/>
+      <c r="C27" s="279"/>
       <c r="D27" s="239" t="s">
         <v>261</v>
       </c>
@@ -29534,7 +30879,7 @@
         <v>-2481</v>
       </c>
       <c r="F31" s="248"/>
-      <c r="K31" s="277" t="s">
+      <c r="K31" s="268" t="s">
         <v>520</v>
       </c>
       <c r="L31" s="188" t="s">
@@ -29562,7 +30907,7 @@
         <v>-8360</v>
       </c>
       <c r="F32" s="251"/>
-      <c r="K32" s="277"/>
+      <c r="K32" s="268"/>
       <c r="L32" s="188" t="s">
         <v>496</v>
       </c>
@@ -29592,7 +30937,7 @@
       <c r="F33" s="246">
         <v>43287.796999999999</v>
       </c>
-      <c r="K33" s="277"/>
+      <c r="K33" s="268"/>
       <c r="L33" s="188" t="s">
         <v>497</v>
       </c>
@@ -29620,7 +30965,7 @@
       <c r="F34" s="247">
         <v>0.4607</v>
       </c>
-      <c r="K34" s="277"/>
+      <c r="K34" s="268"/>
       <c r="L34" s="188" t="s">
         <v>498</v>
       </c>
@@ -29644,7 +30989,7 @@
         <v>-4765</v>
       </c>
       <c r="F35" s="248"/>
-      <c r="K35" s="277"/>
+      <c r="K35" s="268"/>
       <c r="L35" s="188" t="s">
         <v>499</v>
       </c>
@@ -29668,7 +31013,7 @@
         <v>36671</v>
       </c>
       <c r="F36" s="251"/>
-      <c r="K36" s="277" t="s">
+      <c r="K36" s="268" t="s">
         <v>522</v>
       </c>
       <c r="L36" s="188" t="s">
@@ -29700,7 +31045,7 @@
       <c r="F37" s="246">
         <v>16239.531999999999</v>
       </c>
-      <c r="K37" s="277"/>
+      <c r="K37" s="268"/>
       <c r="L37" s="188" t="s">
         <v>503</v>
       </c>
@@ -29730,7 +31075,7 @@
       <c r="F38" s="247">
         <v>0.17280000000000001</v>
       </c>
-      <c r="K38" s="277"/>
+      <c r="K38" s="268"/>
       <c r="L38" s="188" t="s">
         <v>504</v>
       </c>
@@ -29754,7 +31099,7 @@
         <v>10664</v>
       </c>
       <c r="F39" s="251"/>
-      <c r="K39" s="277"/>
+      <c r="K39" s="268"/>
       <c r="L39" s="188" t="s">
         <v>505</v>
       </c>
@@ -29782,7 +31127,7 @@
       <c r="F40" s="246">
         <v>12267.156000000001</v>
       </c>
-      <c r="K40" s="277" t="s">
+      <c r="K40" s="268" t="s">
         <v>521</v>
       </c>
       <c r="L40" s="188" t="s">
@@ -29814,7 +31159,7 @@
       <c r="F41" s="247">
         <v>0.13059999999999999</v>
       </c>
-      <c r="K41" s="277"/>
+      <c r="K41" s="268"/>
       <c r="L41" s="188" t="s">
         <v>508</v>
       </c>
@@ -29840,7 +31185,7 @@
         <v>6766</v>
       </c>
       <c r="F42" s="251"/>
-      <c r="K42" s="277"/>
+      <c r="K42" s="268"/>
       <c r="L42" s="188" t="s">
         <v>509</v>
       </c>
@@ -29868,7 +31213,7 @@
       <c r="F43" s="246">
         <v>9159.2844000000005</v>
       </c>
-      <c r="K43" s="277" t="s">
+      <c r="K43" s="268" t="s">
         <v>523</v>
       </c>
       <c r="L43" s="188" t="s">
@@ -29900,7 +31245,7 @@
       <c r="F44" s="247">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="K44" s="277"/>
+      <c r="K44" s="268"/>
       <c r="L44" s="188" t="s">
         <v>511</v>
       </c>
@@ -29926,7 +31271,7 @@
         <v>-4317</v>
       </c>
       <c r="F45" s="248"/>
-      <c r="K45" s="277"/>
+      <c r="K45" s="268"/>
       <c r="L45" s="188" t="s">
         <v>512</v>
       </c>
@@ -29950,7 +31295,7 @@
         <v>1544</v>
       </c>
       <c r="F46" s="255"/>
-      <c r="K46" s="277" t="s">
+      <c r="K46" s="268" t="s">
         <v>524</v>
       </c>
       <c r="L46" s="188" t="s">
@@ -29967,18 +31312,18 @@
       </c>
     </row>
     <row r="47" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="266" t="s">
+      <c r="B47" s="280" t="s">
         <v>517</v>
       </c>
-      <c r="C47" s="267"/>
-      <c r="D47" s="268" t="s">
+      <c r="C47" s="281"/>
+      <c r="D47" s="282" t="s">
         <v>518</v>
       </c>
-      <c r="E47" s="266"/>
+      <c r="E47" s="280"/>
       <c r="F47" s="246">
         <v>35</v>
       </c>
-      <c r="K47" s="277"/>
+      <c r="K47" s="268"/>
       <c r="L47" s="188" t="s">
         <v>514</v>
       </c>
@@ -29993,18 +31338,18 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="286" t="s">
+      <c r="B48" s="264" t="s">
         <v>519</v>
       </c>
-      <c r="C48" s="287"/>
-      <c r="D48" s="288" t="s">
+      <c r="C48" s="265"/>
+      <c r="D48" s="266" t="s">
         <v>265</v>
       </c>
-      <c r="E48" s="289"/>
+      <c r="E48" s="267"/>
       <c r="F48" s="256">
         <v>0.51342200000000005</v>
       </c>
-      <c r="K48" s="277"/>
+      <c r="K48" s="268"/>
       <c r="L48" s="188" t="s">
         <v>515</v>
       </c>
@@ -30017,7 +31362,7 @@
       <c r="O48" s="240"/>
     </row>
     <row r="49" spans="11:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K49" s="277"/>
+      <c r="K49" s="268"/>
       <c r="L49" s="188" t="s">
         <v>516</v>
       </c>
@@ -30030,45 +31375,33 @@
       <c r="O49" s="240"/>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K50" s="277" t="s">
+      <c r="K50" s="268" t="s">
         <v>517</v>
       </c>
-      <c r="L50" s="277"/>
-      <c r="M50" s="276" t="s">
+      <c r="L50" s="268"/>
+      <c r="M50" s="269" t="s">
         <v>518</v>
       </c>
-      <c r="N50" s="276"/>
+      <c r="N50" s="269"/>
       <c r="O50" s="240">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="276" t="s">
+      <c r="K51" s="269" t="s">
         <v>519</v>
       </c>
-      <c r="L51" s="276"/>
-      <c r="M51" s="276" t="s">
+      <c r="L51" s="269"/>
+      <c r="M51" s="269" t="s">
         <v>525</v>
       </c>
-      <c r="N51" s="276"/>
+      <c r="N51" s="269"/>
       <c r="O51" s="240">
         <v>0.51342200000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:Z2"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
@@ -30081,6 +31414,18 @@
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K36:K39"/>
     <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31831,11 +33176,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="276" t="s">
+      <c r="A78" s="269" t="s">
         <v>349</v>
       </c>
-      <c r="B78" s="276"/>
-      <c r="C78" s="276"/>
+      <c r="B78" s="269"/>
+      <c r="C78" s="269"/>
       <c r="E78" s="4">
         <v>2</v>
       </c>
@@ -31954,11 +33299,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="276" t="s">
+      <c r="A83" s="269" t="s">
         <v>346</v>
       </c>
-      <c r="B83" s="276"/>
-      <c r="C83" s="276"/>
+      <c r="B83" s="269"/>
+      <c r="C83" s="269"/>
       <c r="E83" s="4">
         <v>27</v>
       </c>
@@ -32245,20 +33590,20 @@
       <c r="D94" s="4">
         <v>3</v>
       </c>
-      <c r="E94" s="276" t="s">
+      <c r="E94" s="269" t="s">
         <v>348</v>
       </c>
-      <c r="F94" s="276"/>
-      <c r="G94" s="276"/>
-      <c r="H94" s="276"/>
+      <c r="F94" s="269"/>
+      <c r="G94" s="269"/>
+      <c r="H94" s="269"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="276" t="s">
+      <c r="A95" s="269" t="s">
         <v>347</v>
       </c>
-      <c r="B95" s="276"/>
-      <c r="C95" s="276"/>
-      <c r="D95" s="276"/>
+      <c r="B95" s="269"/>
+      <c r="C95" s="269"/>
+      <c r="D95" s="269"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
@@ -32448,7 +33793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -32509,28 +33854,28 @@
       <c r="N2" s="4">
         <v>2014</v>
       </c>
-      <c r="S2" s="292" t="s">
+      <c r="S2" s="297" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="290">
+      <c r="T2" s="299">
         <v>2005</v>
       </c>
-      <c r="U2" s="292" t="s">
+      <c r="U2" s="297" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="290">
+      <c r="V2" s="299">
         <v>2008</v>
       </c>
-      <c r="W2" s="292" t="s">
+      <c r="W2" s="297" t="s">
         <v>173</v>
       </c>
-      <c r="X2" s="290">
+      <c r="X2" s="299">
         <v>2011</v>
       </c>
-      <c r="Y2" s="292" t="s">
+      <c r="Y2" s="297" t="s">
         <v>173</v>
       </c>
-      <c r="Z2" s="290">
+      <c r="Z2" s="299">
         <v>2014</v>
       </c>
     </row>
@@ -32586,14 +33931,14 @@
         <v>1.5024399541694544E-2</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="291"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="291"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="291"/>
-      <c r="Y3" s="293"/>
-      <c r="Z3" s="291"/>
+      <c r="S3" s="298"/>
+      <c r="T3" s="300"/>
+      <c r="U3" s="298"/>
+      <c r="V3" s="300"/>
+      <c r="W3" s="298"/>
+      <c r="X3" s="300"/>
+      <c r="Y3" s="298"/>
+      <c r="Z3" s="300"/>
       <c r="AB3" s="129">
         <v>13384.3</v>
       </c>
@@ -36001,12 +37346,12 @@
       <c r="R43" s="46"/>
     </row>
     <row r="44" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="294" t="s">
+      <c r="D44" s="290" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="294"/>
-      <c r="F44" s="294"/>
-      <c r="G44" s="295"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="290"/>
+      <c r="G44" s="291"/>
       <c r="H44" s="44">
         <v>20</v>
       </c>
@@ -36204,12 +37549,12 @@
       </c>
     </row>
     <row r="49" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="296" t="s">
+      <c r="D49" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="E49" s="296"/>
-      <c r="F49" s="296"/>
-      <c r="G49" s="297"/>
+      <c r="E49" s="292"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="293"/>
       <c r="H49" s="44">
         <v>25</v>
       </c>
@@ -36639,12 +37984,12 @@
       <c r="G60" s="48">
         <v>9269</v>
       </c>
-      <c r="H60" s="298" t="s">
+      <c r="H60" s="294" t="s">
         <v>205</v>
       </c>
-      <c r="I60" s="299"/>
-      <c r="J60" s="299"/>
-      <c r="K60" s="300"/>
+      <c r="I60" s="295"/>
+      <c r="J60" s="295"/>
+      <c r="K60" s="296"/>
       <c r="L60" s="46"/>
       <c r="M60" s="46"/>
       <c r="N60" s="46"/>
@@ -36660,12 +38005,12 @@
       </c>
     </row>
     <row r="61" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="294" t="s">
+      <c r="D61" s="290" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="294"/>
-      <c r="F61" s="294"/>
-      <c r="G61" s="295"/>
+      <c r="E61" s="290"/>
+      <c r="F61" s="290"/>
+      <c r="G61" s="291"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
@@ -36833,11 +38178,6 @@
     <sortCondition ref="T45:T79"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
@@ -36845,6 +38185,11 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36853,10 +38198,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:AI93"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="Z51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA66" sqref="AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36865,6 +38210,7 @@
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="10" customWidth="1"/>
     <col min="25" max="25" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -39386,7 +40732,7 @@
         <v>3415.6666666666665</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="302"/>
       <c r="B49" s="122">
         <v>27</v>
@@ -39454,7 +40800,7 @@
         <v>15633.444444444445</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="302"/>
       <c r="B50" s="122">
         <v>28</v>
@@ -39522,7 +40868,7 @@
         <v>7390.833333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="302"/>
       <c r="B51" s="122">
         <v>3</v>
@@ -39590,7 +40936,7 @@
         <v>52300.2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="302"/>
       <c r="B52" s="122">
         <v>33</v>
@@ -39658,7 +41004,7 @@
         <v>11038.4</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="302"/>
       <c r="B53" s="122">
         <v>24</v>
@@ -39708,7 +41054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="302"/>
       <c r="B54" s="122">
         <v>34</v>
@@ -39758,7 +41104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="303"/>
       <c r="B55" s="122"/>
       <c r="C55" s="25">
@@ -39820,8 +41166,32 @@
       <c r="X55" s="13" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB55" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>532</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="301" t="s">
         <v>407</v>
       </c>
@@ -39887,8 +41257,33 @@
       <c r="X56" s="185">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB56" t="s">
+        <v>480</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD56">
+        <v>98</v>
+      </c>
+      <c r="AE56" s="338">
+        <v>0.04</v>
+      </c>
+      <c r="AF56" s="338">
+        <v>0.03</v>
+      </c>
+      <c r="AG56" s="338">
+        <v>0.83</v>
+      </c>
+      <c r="AH56" s="338">
+        <v>0.04</v>
+      </c>
+      <c r="AI56" s="338">
+        <f>1-SUM(AE56:AH56)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="302"/>
       <c r="B57" s="122">
         <v>13</v>
@@ -39952,8 +41347,33 @@
       <c r="X57" s="185">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB57" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD57">
+        <v>173</v>
+      </c>
+      <c r="AE57" s="338">
+        <v>0.05</v>
+      </c>
+      <c r="AF57" s="338">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG57" s="338">
+        <v>0.76</v>
+      </c>
+      <c r="AH57" s="338">
+        <v>0.06</v>
+      </c>
+      <c r="AI57" s="338">
+        <f t="shared" ref="AI57:AI60" si="13">1-SUM(AE57:AH57)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="302"/>
       <c r="B58" s="122">
         <v>16</v>
@@ -40017,8 +41437,33 @@
       <c r="X58" s="185">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB58" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD58">
+        <v>83</v>
+      </c>
+      <c r="AE58" s="338">
+        <v>0.05</v>
+      </c>
+      <c r="AF58" s="338">
+        <v>0.06</v>
+      </c>
+      <c r="AG58" s="338">
+        <v>0.51</v>
+      </c>
+      <c r="AH58" s="338">
+        <v>0.22</v>
+      </c>
+      <c r="AI58" s="338">
+        <f t="shared" si="13"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="302"/>
       <c r="B59" s="122">
         <v>18</v>
@@ -40082,8 +41527,33 @@
       <c r="X59" s="185">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB59" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD59">
+        <v>135</v>
+      </c>
+      <c r="AE59" s="338">
+        <v>0.08</v>
+      </c>
+      <c r="AF59" s="338">
+        <v>0.31</v>
+      </c>
+      <c r="AG59" s="338">
+        <v>0.49</v>
+      </c>
+      <c r="AH59" s="338">
+        <v>0.03</v>
+      </c>
+      <c r="AI59" s="338">
+        <f t="shared" si="13"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="302"/>
       <c r="B60" s="122">
         <v>31</v>
@@ -40147,8 +41617,33 @@
       <c r="X60" s="186">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB60" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD60">
+        <v>69</v>
+      </c>
+      <c r="AE60" s="338">
+        <v>0.34</v>
+      </c>
+      <c r="AF60" s="338">
+        <v>0.32</v>
+      </c>
+      <c r="AG60" s="338">
+        <v>0.24</v>
+      </c>
+      <c r="AH60" s="338">
+        <v>0.01</v>
+      </c>
+      <c r="AI60" s="338">
+        <f t="shared" si="13"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="302"/>
       <c r="B61" s="122">
         <v>17</v>
@@ -40198,7 +41693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="302"/>
       <c r="B62" s="122">
         <v>12</v>
@@ -40248,7 +41743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="302"/>
       <c r="B63" s="122">
         <v>32</v>
@@ -40298,7 +41793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="302"/>
       <c r="B64" s="122">
         <v>23</v>
@@ -40360,19 +41855,19 @@
         <v>5.4320420398961511E-2</v>
       </c>
       <c r="E65" s="32">
-        <f t="shared" ref="E65:H65" si="13">AVERAGE(E57:E64)</f>
+        <f t="shared" ref="E65:H65" si="14">AVERAGE(E57:E64)</f>
         <v>4.0302558438692383E-2</v>
       </c>
       <c r="F65" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.59664555486648918</v>
       </c>
       <c r="G65" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.215583805493918E-2</v>
       </c>
       <c r="H65" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.4697074419802112E-2</v>
       </c>
       <c r="I65" s="125">
@@ -40704,31 +42199,31 @@
       <c r="A72" s="302"/>
       <c r="B72" s="122"/>
       <c r="C72" s="24">
-        <f t="shared" ref="C72:I72" si="14">AVERAGE(C66:C71)</f>
+        <f t="shared" ref="C72:I72" si="15">AVERAGE(C66:C71)</f>
         <v>63.567893965646867</v>
       </c>
       <c r="D72" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.0316297728848965E-2</v>
       </c>
       <c r="E72" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0841940326374596E-2</v>
       </c>
       <c r="F72" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.40216925562960942</v>
       </c>
       <c r="G72" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.9764791360822678E-2</v>
       </c>
       <c r="H72" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20709454656376383</v>
       </c>
       <c r="I72" s="125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7390.833333333333</v>
       </c>
       <c r="J72" s="122"/>
@@ -41014,19 +42509,19 @@
         <v>0.38083715273764362</v>
       </c>
       <c r="E78" s="32">
-        <f t="shared" ref="E78:H78" si="15">AVERAGE(E73:E77)</f>
+        <f t="shared" ref="E78:H78" si="16">AVERAGE(E73:E77)</f>
         <v>0.25757206517749559</v>
       </c>
       <c r="F78" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1367833202995466</v>
       </c>
       <c r="G78" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0783933207312453E-2</v>
       </c>
       <c r="H78" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.236302855403389E-2</v>
       </c>
       <c r="I78" s="125">
@@ -41281,19 +42776,19 @@
         <v>0.27481836401964993</v>
       </c>
       <c r="E84" s="36">
-        <f t="shared" ref="E84:H84" si="16">AVERAGE(E79:E83)</f>
+        <f t="shared" ref="E84:H84" si="17">AVERAGE(E79:E83)</f>
         <v>0.14200596303359431</v>
       </c>
       <c r="F84" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.27094896967443904</v>
       </c>
       <c r="G84" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6867072574279378E-2</v>
       </c>
       <c r="H84" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.0956173266151549E-2</v>
       </c>
       <c r="I84" s="125">
@@ -41480,15 +42975,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N47:O81">
-    <sortCondition ref="N47:N81"/>
-  </sortState>
   <mergeCells count="15">
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A56:A65"/>
     <mergeCell ref="K12:K20"/>
     <mergeCell ref="K21:K28"/>
     <mergeCell ref="K29:K34"/>
@@ -41499,6 +42986,11 @@
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="K2:K11"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A56:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D29:I41 D2:I27 C11 C20 C34 C40">
@@ -43036,11 +44528,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="315" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
       <c r="J1" t="s">
         <v>357</v>
       </c>
@@ -43073,7 +44565,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="324" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -43554,11 +45046,11 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="307" t="s">
+      <c r="A13" s="314" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="307"/>
-      <c r="C13" s="307"/>
+      <c r="B13" s="314"/>
+      <c r="C13" s="314"/>
       <c r="J13" s="132">
         <v>29374</v>
       </c>
@@ -43623,15 +45115,15 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="317" t="s">
+      <c r="A15" s="315" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="317"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="317"/>
-      <c r="G15" s="317"/>
+      <c r="B15" s="315"/>
+      <c r="C15" s="315"/>
+      <c r="D15" s="315"/>
+      <c r="E15" s="315"/>
+      <c r="F15" s="315"/>
+      <c r="G15" s="315"/>
       <c r="H15" s="63"/>
       <c r="J15" s="132">
         <v>1033218</v>
@@ -43665,19 +45157,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="313" t="s">
+      <c r="A16" s="319" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="319" t="s">
+      <c r="B16" s="321" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="315"/>
-      <c r="D16" s="315"/>
-      <c r="E16" s="315" t="s">
+      <c r="C16" s="322"/>
+      <c r="D16" s="322"/>
+      <c r="E16" s="322" t="s">
         <v>248</v>
       </c>
-      <c r="F16" s="315"/>
-      <c r="G16" s="315"/>
+      <c r="F16" s="322"/>
+      <c r="G16" s="322"/>
       <c r="H16" s="63"/>
       <c r="J16" s="132">
         <v>368530</v>
@@ -43711,7 +45203,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="314"/>
+      <c r="A17" s="320"/>
       <c r="B17" s="64" t="s">
         <v>249</v>
       </c>
@@ -44261,15 +45753,15 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="307" t="s">
+      <c r="A28" s="314" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="307"/>
-      <c r="C28" s="307"/>
-      <c r="D28" s="307"/>
-      <c r="E28" s="307"/>
-      <c r="F28" s="307"/>
-      <c r="G28" s="307"/>
+      <c r="B28" s="314"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="314"/>
+      <c r="F28" s="314"/>
+      <c r="G28" s="314"/>
       <c r="H28" s="63"/>
       <c r="J28" s="132">
         <v>10212</v>
@@ -44335,12 +45827,12 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="317" t="s">
+      <c r="A30" s="315" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="317"/>
-      <c r="C30" s="317"/>
-      <c r="D30" s="317"/>
+      <c r="B30" s="315"/>
+      <c r="C30" s="315"/>
+      <c r="D30" s="315"/>
       <c r="E30" s="63"/>
       <c r="J30" s="132">
         <v>10145</v>
@@ -44374,14 +45866,14 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="313" t="s">
+      <c r="A31" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="319" t="s">
+      <c r="B31" s="321" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="315"/>
-      <c r="D31" s="316"/>
+      <c r="C31" s="322"/>
+      <c r="D31" s="323"/>
       <c r="E31" s="63"/>
       <c r="J31" s="132">
         <v>3416</v>
@@ -44415,7 +45907,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="314"/>
+      <c r="A32" s="320"/>
       <c r="B32" s="77" t="s">
         <v>232</v>
       </c>
@@ -44711,20 +46203,20 @@
         <v>0.77915170652233812</v>
       </c>
       <c r="E41" s="63"/>
-      <c r="J41" s="317" t="s">
+      <c r="J41" s="315" t="s">
         <v>378</v>
       </c>
-      <c r="K41" s="317"/>
-      <c r="L41" s="317"/>
-      <c r="M41" s="317"/>
-      <c r="N41" s="317"/>
-      <c r="O41" s="317"/>
-      <c r="P41" s="317"/>
-      <c r="Q41" s="317"/>
-      <c r="R41" s="317"/>
-      <c r="S41" s="317"/>
-      <c r="T41" s="317"/>
-      <c r="U41" s="317"/>
+      <c r="K41" s="315"/>
+      <c r="L41" s="315"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="315"/>
+      <c r="O41" s="315"/>
+      <c r="P41" s="315"/>
+      <c r="Q41" s="315"/>
+      <c r="R41" s="315"/>
+      <c r="S41" s="315"/>
+      <c r="T41" s="315"/>
+      <c r="U41" s="315"/>
     </row>
     <row r="42" spans="1:21" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
@@ -44776,14 +46268,14 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="307" t="s">
+      <c r="A43" s="314" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="307"/>
-      <c r="C43" s="307"/>
-      <c r="D43" s="307"/>
+      <c r="B43" s="314"/>
+      <c r="C43" s="314"/>
+      <c r="D43" s="314"/>
       <c r="E43" s="63"/>
-      <c r="J43" s="320" t="s">
+      <c r="J43" s="316" t="s">
         <v>379</v>
       </c>
       <c r="K43" s="134" t="s">
@@ -44821,14 +46313,14 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="307" t="s">
+      <c r="A44" s="314" t="s">
         <v>258</v>
       </c>
-      <c r="B44" s="307"/>
-      <c r="C44" s="307"/>
-      <c r="D44" s="307"/>
+      <c r="B44" s="314"/>
+      <c r="C44" s="314"/>
+      <c r="D44" s="314"/>
       <c r="E44" s="63"/>
-      <c r="J44" s="311"/>
+      <c r="J44" s="317"/>
       <c r="K44" s="135" t="s">
         <v>358</v>
       </c>
@@ -44864,7 +46356,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J45" s="311"/>
+      <c r="J45" s="317"/>
       <c r="K45" s="135" t="s">
         <v>360</v>
       </c>
@@ -44900,14 +46392,14 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="317" t="s">
+      <c r="A46" s="315" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="317"/>
-      <c r="C46" s="317"/>
-      <c r="D46" s="317"/>
+      <c r="B46" s="315"/>
+      <c r="C46" s="315"/>
+      <c r="D46" s="315"/>
       <c r="E46" s="63"/>
-      <c r="J46" s="311"/>
+      <c r="J46" s="317"/>
       <c r="K46" s="135" t="s">
         <v>362</v>
       </c>
@@ -44943,16 +46435,16 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="313" t="s">
+      <c r="A47" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="319" t="s">
+      <c r="B47" s="321" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="315"/>
-      <c r="D47" s="316"/>
+      <c r="C47" s="322"/>
+      <c r="D47" s="323"/>
       <c r="E47" s="63"/>
-      <c r="J47" s="311"/>
+      <c r="J47" s="317"/>
       <c r="K47" s="135" t="s">
         <v>364</v>
       </c>
@@ -44988,7 +46480,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="314"/>
+      <c r="A48" s="320"/>
       <c r="B48" s="77" t="s">
         <v>232</v>
       </c>
@@ -44999,7 +46491,7 @@
         <v>234</v>
       </c>
       <c r="E48" s="63"/>
-      <c r="J48" s="311"/>
+      <c r="J48" s="317"/>
       <c r="K48" s="135" t="s">
         <v>374</v>
       </c>
@@ -45048,7 +46540,7 @@
         <v>-2.7934709837800015E-2</v>
       </c>
       <c r="E49" s="63"/>
-      <c r="J49" s="311"/>
+      <c r="J49" s="317"/>
       <c r="K49" s="135" t="s">
         <v>376</v>
       </c>
@@ -45097,7 +46589,7 @@
         <v>2.1664779100642829E-2</v>
       </c>
       <c r="E50" s="63"/>
-      <c r="J50" s="311"/>
+      <c r="J50" s="317"/>
       <c r="K50" s="135" t="s">
         <v>367</v>
       </c>
@@ -45146,7 +46638,7 @@
         <v>-2.6269457529749383E-2</v>
       </c>
       <c r="E51" s="63"/>
-      <c r="J51" s="311"/>
+      <c r="J51" s="317"/>
       <c r="K51" s="135" t="s">
         <v>369</v>
       </c>
@@ -45195,7 +46687,7 @@
         <v>-0.11871053389509453</v>
       </c>
       <c r="E52" s="63"/>
-      <c r="J52" s="312"/>
+      <c r="J52" s="318"/>
       <c r="K52" s="136" t="s">
         <v>371</v>
       </c>
@@ -45279,12 +46771,12 @@
       </c>
       <c r="K55" s="173"/>
       <c r="L55" s="173"/>
-      <c r="R55" s="308" t="s">
+      <c r="R55" s="325" t="s">
         <v>388</v>
       </c>
-      <c r="S55" s="308"/>
-      <c r="T55" s="308"/>
-      <c r="U55" s="308"/>
+      <c r="S55" s="325"/>
+      <c r="T55" s="325"/>
+      <c r="U55" s="325"/>
       <c r="V55" s="151"/>
       <c r="W55" s="151"/>
       <c r="X55" s="151"/>
@@ -45313,19 +46805,19 @@
       <c r="L56" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="N56" s="308" t="s">
+      <c r="N56" s="325" t="s">
         <v>382</v>
       </c>
-      <c r="O56" s="308"/>
-      <c r="P56" s="308"/>
-      <c r="R56" s="313" t="s">
+      <c r="O56" s="325"/>
+      <c r="P56" s="325"/>
+      <c r="R56" s="319" t="s">
         <v>389</v>
       </c>
-      <c r="S56" s="315" t="s">
+      <c r="S56" s="322" t="s">
         <v>390</v>
       </c>
-      <c r="T56" s="315"/>
-      <c r="U56" s="316"/>
+      <c r="T56" s="322"/>
+      <c r="U56" s="323"/>
       <c r="Y56" s="63"/>
     </row>
     <row r="57" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -45351,14 +46843,14 @@
       <c r="L57" s="164">
         <v>0.94336990469912863</v>
       </c>
-      <c r="N57" s="309" t="s">
+      <c r="N57" s="326" t="s">
         <v>383</v>
       </c>
-      <c r="O57" s="310"/>
+      <c r="O57" s="327"/>
       <c r="P57" s="143">
         <v>0.75626582815288179</v>
       </c>
-      <c r="R57" s="314"/>
+      <c r="R57" s="320"/>
       <c r="S57" s="65" t="s">
         <v>329</v>
       </c>
@@ -45393,7 +46885,7 @@
       <c r="L58" s="168">
         <v>0.79911853862509408</v>
       </c>
-      <c r="N58" s="311" t="s">
+      <c r="N58" s="317" t="s">
         <v>384</v>
       </c>
       <c r="O58" s="135" t="s">
@@ -45417,12 +46909,12 @@
       <c r="Y58" s="63"/>
     </row>
     <row r="59" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="307" t="s">
+      <c r="A59" s="314" t="s">
         <v>253</v>
       </c>
-      <c r="B59" s="307"/>
-      <c r="C59" s="307"/>
-      <c r="D59" s="307"/>
+      <c r="B59" s="314"/>
+      <c r="C59" s="314"/>
+      <c r="D59" s="314"/>
       <c r="E59" s="63"/>
       <c r="J59" s="165" t="s">
         <v>360</v>
@@ -45433,7 +46925,7 @@
       <c r="L59" s="168">
         <v>0.88971222035056763</v>
       </c>
-      <c r="N59" s="311"/>
+      <c r="N59" s="317"/>
       <c r="O59" s="135" t="s">
         <v>386</v>
       </c>
@@ -45464,7 +46956,7 @@
       <c r="L60" s="168">
         <v>0.72456193164480165</v>
       </c>
-      <c r="N60" s="312"/>
+      <c r="N60" s="318"/>
       <c r="O60" s="136" t="s">
         <v>387</v>
       </c>
@@ -45594,39 +47086,39 @@
       <c r="Y67" s="63"/>
     </row>
     <row r="68" spans="10:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="R68" s="307" t="s">
+      <c r="R68" s="314" t="s">
         <v>244</v>
       </c>
-      <c r="S68" s="307"/>
-      <c r="T68" s="307"/>
-      <c r="U68" s="307"/>
-      <c r="V68" s="307"/>
-      <c r="W68" s="307"/>
-      <c r="X68" s="307"/>
+      <c r="S68" s="314"/>
+      <c r="T68" s="314"/>
+      <c r="U68" s="314"/>
+      <c r="V68" s="314"/>
+      <c r="W68" s="314"/>
+      <c r="X68" s="314"/>
       <c r="Y68" s="63"/>
     </row>
     <row r="72" spans="10:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J72" s="321" t="s">
+      <c r="J72" s="307" t="s">
         <v>474</v>
       </c>
-      <c r="K72" s="321"/>
-      <c r="L72" s="321"/>
-      <c r="M72" s="321"/>
+      <c r="K72" s="307"/>
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
       <c r="N72" s="63"/>
     </row>
     <row r="73" spans="10:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J73" s="322" t="s">
+      <c r="J73" s="308" t="s">
         <v>222</v>
       </c>
-      <c r="K73" s="324" t="s">
+      <c r="K73" s="310" t="s">
         <v>389</v>
       </c>
-      <c r="L73" s="325"/>
-      <c r="M73" s="326"/>
+      <c r="L73" s="311"/>
+      <c r="M73" s="312"/>
       <c r="N73" s="63"/>
     </row>
     <row r="74" spans="10:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J74" s="323"/>
+      <c r="J74" s="309"/>
       <c r="K74" s="158" t="s">
         <v>232</v>
       </c>
@@ -45789,30 +47281,38 @@
       <c r="N84" s="63"/>
     </row>
     <row r="85" spans="10:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J85" s="327" t="s">
+      <c r="J85" s="313" t="s">
         <v>393</v>
       </c>
-      <c r="K85" s="327"/>
-      <c r="L85" s="327"/>
-      <c r="M85" s="327"/>
+      <c r="K85" s="313"/>
+      <c r="L85" s="313"/>
+      <c r="M85" s="313"/>
       <c r="N85" s="63"/>
     </row>
     <row r="86" spans="10:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J86" s="327" t="s">
+      <c r="J86" s="313" t="s">
         <v>413</v>
       </c>
-      <c r="K86" s="327"/>
-      <c r="L86" s="327"/>
-      <c r="M86" s="327"/>
+      <c r="K86" s="313"/>
+      <c r="L86" s="313"/>
+      <c r="M86" s="313"/>
       <c r="N86" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A43:D43"/>
@@ -45826,19 +47326,11 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L43:U52">
